--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_180.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_180.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,14 +16,89 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>STR</t>
   </si>
   <si>
+    <t>reviewer_ID</t>
+  </si>
+  <si>
+    <t>reviewer_name</t>
+  </si>
+  <si>
+    <t>Review_ID</t>
+  </si>
+  <si>
+    <t>Date_of_scraping</t>
+  </si>
+  <si>
+    <t>ReviewURL</t>
+  </si>
+  <si>
+    <t>Tripadvisor_gcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_dcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_rcode</t>
+  </si>
+  <si>
+    <t>review_date</t>
+  </si>
+  <si>
+    <t>review_title</t>
+  </si>
+  <si>
+    <t>review_content</t>
+  </si>
+  <si>
+    <t>review_rating</t>
+  </si>
+  <si>
+    <t>trip_month</t>
+  </si>
+  <si>
+    <t>trip_purpose</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>rooms</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Cleanliness</t>
+  </si>
+  <si>
+    <t>Sleep Quality</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Picture(yes=1)</t>
+  </si>
+  <si>
+    <t>respondent</t>
+  </si>
+  <si>
+    <t>response_date</t>
+  </si>
+  <si>
+    <t>response_text</t>
+  </si>
+  <si>
     <t>Hotel_Name</t>
   </si>
   <si>
+    <t>State</t>
+  </si>
+  <si>
     <t>City</t>
   </si>
   <si>
@@ -48,6 +123,9 @@
     <t>Sleep Inn Slidell</t>
   </si>
   <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
     <t>Slidell</t>
   </si>
   <si>
@@ -64,78 +142,6 @@
   </si>
   <si>
     <t>103</t>
-  </si>
-  <si>
-    <t>reviewer_ID</t>
-  </si>
-  <si>
-    <t>reviewer_name</t>
-  </si>
-  <si>
-    <t>Review_ID</t>
-  </si>
-  <si>
-    <t>Date_of_scraping</t>
-  </si>
-  <si>
-    <t>ReviewURL</t>
-  </si>
-  <si>
-    <t>Tripadvisor_gcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_dcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_rcode</t>
-  </si>
-  <si>
-    <t>review_date</t>
-  </si>
-  <si>
-    <t>review_title</t>
-  </si>
-  <si>
-    <t>review_content</t>
-  </si>
-  <si>
-    <t>review_rating</t>
-  </si>
-  <si>
-    <t>trip_month</t>
-  </si>
-  <si>
-    <t>trip_purpose</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>rooms</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Cleanliness</t>
-  </si>
-  <si>
-    <t>Sleep Quality</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>Picture(yes=1)</t>
-  </si>
-  <si>
-    <t>respondent</t>
-  </si>
-  <si>
-    <t>response_date</t>
-  </si>
-  <si>
-    <t>response_text</t>
   </si>
 </sst>
 </file>
@@ -506,34 +512,53 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>39774</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="n">
-        <v>70458</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+      <c r="P1" t="s">
         <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -558,76 +583,63 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S1" t="s">
         <v>33</v>
       </c>
-      <c r="T1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="U1" t="s">
+      <c r="C2" t="s">
         <v>35</v>
       </c>
-      <c r="V1" t="s">
+      <c r="D2" t="s">
         <v>36</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E2" t="n">
+        <v>70458</v>
+      </c>
+      <c r="F2" t="s">
         <v>37</v>
       </c>
-      <c r="X1" t="s">
+      <c r="G2" t="s">
         <v>38</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="H2" t="s">
         <v>39</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_180.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_180.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="849">
   <si>
     <t>STR</t>
   </si>
@@ -91,6 +91,2447 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>10/14/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r618999983-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>40435</t>
+  </si>
+  <si>
+    <t>124178</t>
+  </si>
+  <si>
+    <t>618999983</t>
+  </si>
+  <si>
+    <t>09/23/2018</t>
+  </si>
+  <si>
+    <t>Run of the mill Sleep Inn</t>
+  </si>
+  <si>
+    <t>Sleep Inns are usually a step ahead of budget properties and this one qualifies.  The property is not particularly well maintained but the important things were functional.  Service was above average and breakfast satisfactory but undistinguished.  It's located in a bit of a food desert with a lonely Waffle House the only nearby option.  There is nothing special here but it's within 30 minutes of downtown New Orleans via I-10.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Nick T, General Manager at Sleep Inn, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Sleep Inns are usually a step ahead of budget properties and this one qualifies.  The property is not particularly well maintained but the important things were functional.  Service was above average and breakfast satisfactory but undistinguished.  It's located in a bit of a food desert with a lonely Waffle House the only nearby option.  There is nothing special here but it's within 30 minutes of downtown New Orleans via I-10.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r615854362-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>615854362</t>
+  </si>
+  <si>
+    <t>09/11/2018</t>
+  </si>
+  <si>
+    <t>No complaints</t>
+  </si>
+  <si>
+    <t>Hotel was clean and well run. Only negative, nothing was close, restaurants. No gym, breakfast was good, just the basics. Motel off I 10, south of I 12 about 8miles. Staff very friendly. Would stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Nick T, General Manager at Sleep Inn, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Hotel was clean and well run. Only negative, nothing was close, restaurants. No gym, breakfast was good, just the basics. Motel off I 10, south of I 12 about 8miles. Staff very friendly. Would stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r598157677-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>598157677</t>
+  </si>
+  <si>
+    <t>07/21/2018</t>
+  </si>
+  <si>
+    <t>Would Not Recommend to Anyone</t>
+  </si>
+  <si>
+    <t>The hotel lost our reservations that we had made a month in advance, forced to settle for smaller rooms with only one bed with 4 people staying in the room. Later found hair in the shower, towels and bed!! Also dead bugs were all in the floor. A/c in the room did not work, only made noise, also mold was found in the ice bucket. The Hotel staff are not easy to deal with when you have a problem, very difficult employeesMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Nick T, General Manager at Sleep Inn, responded to this reviewResponded July 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 30, 2018</t>
+  </si>
+  <si>
+    <t>The hotel lost our reservations that we had made a month in advance, forced to settle for smaller rooms with only one bed with 4 people staying in the room. Later found hair in the shower, towels and bed!! Also dead bugs were all in the floor. A/c in the room did not work, only made noise, also mold was found in the ice bucket. The Hotel staff are not easy to deal with when you have a problem, very difficult employeesMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r568073234-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>568073234</t>
+  </si>
+  <si>
+    <t>03/22/2018</t>
+  </si>
+  <si>
+    <t>GREAT STAY</t>
+  </si>
+  <si>
+    <t>clean, quiet, great staff, great jump off for day trips to New Orleans, good breakfast, safe feeling , easy interstate access, got a great upgrade do to overbooking on double rooms, would stay again, stayed 2 nights prior to cruise from New OrleansMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Nick T, General Manager at Sleep Inn, responded to this reviewResponded March 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 26, 2018</t>
+  </si>
+  <si>
+    <t>clean, quiet, great staff, great jump off for day trips to New Orleans, good breakfast, safe feeling , easy interstate access, got a great upgrade do to overbooking on double rooms, would stay again, stayed 2 nights prior to cruise from New OrleansMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r564377542-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>564377542</t>
+  </si>
+  <si>
+    <t>03/04/2018</t>
+  </si>
+  <si>
+    <t>DIRTY SHEETS</t>
+  </si>
+  <si>
+    <t>Checked in for two nights. When getting ready for bed we noticed BLOOD STAINS  on both sheets. We immediately called the front desk, got dressed and filled suitcases to be moved to another room. The night clerk brought new keys up and took pictures to send to manager.  The following morning we asked if manager had been notified and was told he had already been up to the room. We checked out the following day and was never approached in any way by the manager. We have stayed here  before but never again! We are loyal CP  members but was not treated as such,MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>Nick T, General Manager at Sleep Inn, responded to this reviewResponded March 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 5, 2018</t>
+  </si>
+  <si>
+    <t>Checked in for two nights. When getting ready for bed we noticed BLOOD STAINS  on both sheets. We immediately called the front desk, got dressed and filled suitcases to be moved to another room. The night clerk brought new keys up and took pictures to send to manager.  The following morning we asked if manager had been notified and was told he had already been up to the room. We checked out the following day and was never approached in any way by the manager. We have stayed here  before but never again! We are loyal CP  members but was not treated as such,More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r560346772-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>560346772</t>
+  </si>
+  <si>
+    <t>02/13/2018</t>
+  </si>
+  <si>
+    <t>Mardi Gras</t>
+  </si>
+  <si>
+    <t>We had a fantastic stay here while going to Thursday's parades - the day manager gave us spot-on advise, from parking to eating! He was extremely helpful, friendly and professional, and as we were first-timers to the parades we really appreciated this. Clean, quiet, and we will stay here again. Thank you management and staff!Greg and Sandy FairchildChattanooga, TNMoreShow less</t>
+  </si>
+  <si>
+    <t>Nick T, Manager at Sleep Inn, responded to this reviewResponded February 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 16, 2018</t>
+  </si>
+  <si>
+    <t>We had a fantastic stay here while going to Thursday's parades - the day manager gave us spot-on advise, from parking to eating! He was extremely helpful, friendly and professional, and as we were first-timers to the parades we really appreciated this. Clean, quiet, and we will stay here again. Thank you management and staff!Greg and Sandy FairchildChattanooga, TNMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r545163888-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>545163888</t>
+  </si>
+  <si>
+    <t>12/04/2017</t>
+  </si>
+  <si>
+    <t>Nice, quiet hotel</t>
+  </si>
+  <si>
+    <t>Have stayed here on a few occasions and enjoyed the clean, quiet rooms and the friendly, helpful staff.  It is near Interstate 10 for easy access and about 5 minutes from a great shopping and dining area.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Terry F, General Manager at Sleep Inn, responded to this reviewResponded December 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 7, 2017</t>
+  </si>
+  <si>
+    <t>Have stayed here on a few occasions and enjoyed the clean, quiet rooms and the friendly, helpful staff.  It is near Interstate 10 for easy access and about 5 minutes from a great shopping and dining area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r523844050-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>523844050</t>
+  </si>
+  <si>
+    <t>09/12/2017</t>
+  </si>
+  <si>
+    <t>Just a getaway.</t>
+  </si>
+  <si>
+    <t>This hotel is very nice.  The rooms are very clean and the A/C worked great.  The breakfast was nice.  All the staff were amazing and very helpful.  You couldn't have asked for better or more friendly. I would definitely return. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Terry F, General Manager at Sleep Inn, responded to this reviewResponded September 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 14, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is very nice.  The rooms are very clean and the A/C worked great.  The breakfast was nice.  All the staff were amazing and very helpful.  You couldn't have asked for better or more friendly. I would definitely return. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r486550967-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>486550967</t>
+  </si>
+  <si>
+    <t>05/22/2017</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>The rooms are very nice and all of the staff are friendly, wonderful people! Convenient location, located just off the interstate and not far from New Orleans.  What more do you need?  Will always come back!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Terry F, General Manager at Sleep Inn, responded to this reviewResponded May 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 24, 2017</t>
+  </si>
+  <si>
+    <t>The rooms are very nice and all of the staff are friendly, wonderful people! Convenient location, located just off the interstate and not far from New Orleans.  What more do you need?  Will always come back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r484773897-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>484773897</t>
+  </si>
+  <si>
+    <t>05/16/2017</t>
+  </si>
+  <si>
+    <t>Great value</t>
+  </si>
+  <si>
+    <t>All the staff I encountered were either helpful &amp;/or very pleasant folk.  ...not sure the age of this Sleep Inn but it all looked new enough.  The room was comfortable and well equipped (iron, ironing board, coffee maker, hair dryer, refrigerator, microwave, &amp; of course, TV....didn't need much of it but it's nice to know it was there if I needed it &amp; everything worked just fine.  The room and other parts of the hotel I saw, inside &amp; out, were clean &amp; well maintained. This Sleep Inn was in what appeared to me a safe area....it was immediately off I-10 on a quite exit.  All I saw nearby was mostly residential dwellings and directly across the little side street it's on was a Waffle House and some small shops in what  also appeared fairly new.  I was just there overnight for a funeral the next day.  After checking in and getting my bearings I went out to find the church so I'd know where to go in the morning.  The church turned out to be just 10 minutes away up I-10...I passed a few exits before mine and they all appeared to be busier exits with plenty of services ...got to my exit to the church in minutes and it also had plenty of services ....I needed a place to get supper...there were plenty of choices but I opted for the Cracker Barrel... (always a good value).  Net:  While...All the staff I encountered were either helpful &amp;/or very pleasant folk.  ...not sure the age of this Sleep Inn but it all looked new enough.  The room was comfortable and well equipped (iron, ironing board, coffee maker, hair dryer, refrigerator, microwave, &amp; of course, TV....didn't need much of it but it's nice to know it was there if I needed it &amp; everything worked just fine.  The room and other parts of the hotel I saw, inside &amp; out, were clean &amp; well maintained. This Sleep Inn was in what appeared to me a safe area....it was immediately off I-10 on a quite exit.  All I saw nearby was mostly residential dwellings and directly across the little side street it's on was a Waffle House and some small shops in what  also appeared fairly new.  I was just there overnight for a funeral the next day.  After checking in and getting my bearings I went out to find the church so I'd know where to go in the morning.  The church turned out to be just 10 minutes away up I-10...I passed a few exits before mine and they all appeared to be busier exits with plenty of services ...got to my exit to the church in minutes and it also had plenty of services ....I needed a place to get supper...there were plenty of choices but I opted for the Cracker Barrel... (always a good value).  Net:  While there is not a lot at the quiet exit for this Sleep Inn, there's plenty of service choices very close. If your druthers are the high end glitzy stuff with a concierge, bell-hops, huge lobby, etc. (I've stayed in plenty of them too), then this Sleep Inn is not for you.  But if you prefer, no hassle, clean, well appointed, comfortable, convenient, quiet, safe and a helpful/congenial staff, AND A VERY GOOD RATE, I suggest you'll like this place.   For those planning a New Orleans visit:  This Sleep Inn is maybe 30 minutes from center city.  Unless you absolutely want to hotel it IN New Orleans (and pay the premium), this place may offer a good alternative to the budget conscious.   Lastly, people always comment on the complimentary breakfast.  It was like many adequate ones I've seen.  I was satisfied with what I ate and my choices.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Terry F, General Manager at Sleep Inn, responded to this reviewResponded May 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2017</t>
+  </si>
+  <si>
+    <t>All the staff I encountered were either helpful &amp;/or very pleasant folk.  ...not sure the age of this Sleep Inn but it all looked new enough.  The room was comfortable and well equipped (iron, ironing board, coffee maker, hair dryer, refrigerator, microwave, &amp; of course, TV....didn't need much of it but it's nice to know it was there if I needed it &amp; everything worked just fine.  The room and other parts of the hotel I saw, inside &amp; out, were clean &amp; well maintained. This Sleep Inn was in what appeared to me a safe area....it was immediately off I-10 on a quite exit.  All I saw nearby was mostly residential dwellings and directly across the little side street it's on was a Waffle House and some small shops in what  also appeared fairly new.  I was just there overnight for a funeral the next day.  After checking in and getting my bearings I went out to find the church so I'd know where to go in the morning.  The church turned out to be just 10 minutes away up I-10...I passed a few exits before mine and they all appeared to be busier exits with plenty of services ...got to my exit to the church in minutes and it also had plenty of services ....I needed a place to get supper...there were plenty of choices but I opted for the Cracker Barrel... (always a good value).  Net:  While...All the staff I encountered were either helpful &amp;/or very pleasant folk.  ...not sure the age of this Sleep Inn but it all looked new enough.  The room was comfortable and well equipped (iron, ironing board, coffee maker, hair dryer, refrigerator, microwave, &amp; of course, TV....didn't need much of it but it's nice to know it was there if I needed it &amp; everything worked just fine.  The room and other parts of the hotel I saw, inside &amp; out, were clean &amp; well maintained. This Sleep Inn was in what appeared to me a safe area....it was immediately off I-10 on a quite exit.  All I saw nearby was mostly residential dwellings and directly across the little side street it's on was a Waffle House and some small shops in what  also appeared fairly new.  I was just there overnight for a funeral the next day.  After checking in and getting my bearings I went out to find the church so I'd know where to go in the morning.  The church turned out to be just 10 minutes away up I-10...I passed a few exits before mine and they all appeared to be busier exits with plenty of services ...got to my exit to the church in minutes and it also had plenty of services ....I needed a place to get supper...there were plenty of choices but I opted for the Cracker Barrel... (always a good value).  Net:  While there is not a lot at the quiet exit for this Sleep Inn, there's plenty of service choices very close. If your druthers are the high end glitzy stuff with a concierge, bell-hops, huge lobby, etc. (I've stayed in plenty of them too), then this Sleep Inn is not for you.  But if you prefer, no hassle, clean, well appointed, comfortable, convenient, quiet, safe and a helpful/congenial staff, AND A VERY GOOD RATE, I suggest you'll like this place.   For those planning a New Orleans visit:  This Sleep Inn is maybe 30 minutes from center city.  Unless you absolutely want to hotel it IN New Orleans (and pay the premium), this place may offer a good alternative to the budget conscious.   Lastly, people always comment on the complimentary breakfast.  It was like many adequate ones I've seen.  I was satisfied with what I ate and my choices.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r480487298-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>480487298</t>
+  </si>
+  <si>
+    <t>05/01/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only place we stay! </t>
+  </si>
+  <si>
+    <t>My husband and myself stay here atleast once a  year. The rooms are clean and the staff is friendly. Great location,especially Waffle House across the street. The beds are comfortable,but the pillows are small. Next time will bring my own. Can't wait to return!   MoreShow less</t>
+  </si>
+  <si>
+    <t>Terry F, General Manager at Sleep Inn, responded to this reviewResponded May 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 2, 2017</t>
+  </si>
+  <si>
+    <t>My husband and myself stay here atleast once a  year. The rooms are clean and the staff is friendly. Great location,especially Waffle House across the street. The beds are comfortable,but the pillows are small. Next time will bring my own. Can't wait to return!   More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r479334413-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>479334413</t>
+  </si>
+  <si>
+    <t>04/26/2017</t>
+  </si>
+  <si>
+    <t>Nice little hotel with free breakfast</t>
+  </si>
+  <si>
+    <t>We had to stay at this hotel for a few days when our house flooded. It was very clean and had lots of room in our suite! The breakfast was ok nothing fancy but was nice that it was complimentary. Great hotel for a business trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Terry F, General Manager at Sleep Inn, responded to this reviewResponded April 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 28, 2017</t>
+  </si>
+  <si>
+    <t>We had to stay at this hotel for a few days when our house flooded. It was very clean and had lots of room in our suite! The breakfast was ok nothing fancy but was nice that it was complimentary. Great hotel for a business trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r467577297-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>467577297</t>
+  </si>
+  <si>
+    <t>03/15/2017</t>
+  </si>
+  <si>
+    <t>Last stop before a cruise from New Orleans.</t>
+  </si>
+  <si>
+    <t>My wife and I were headed to NOLA for a cruise.  This was our stopover before a Sunday embarkation.  We have stayed in other Sleep Inn properties and this one was quite similar.  It was clean, quiet and comfortable.  The morning "hot" breakfast was also good.  This property has easy access to I 10 and it was an easy drive to the cruise port from here.  I also overhead another couple talking about going on a cruise.  It is much more reasonable then downtown NOLA properties.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>My wife and I were headed to NOLA for a cruise.  This was our stopover before a Sunday embarkation.  We have stayed in other Sleep Inn properties and this one was quite similar.  It was clean, quiet and comfortable.  The morning "hot" breakfast was also good.  This property has easy access to I 10 and it was an easy drive to the cruise port from here.  I also overhead another couple talking about going on a cruise.  It is much more reasonable then downtown NOLA properties.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r454556560-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>454556560</t>
+  </si>
+  <si>
+    <t>01/24/2017</t>
+  </si>
+  <si>
+    <t>For working along the north shore of Pontchartrain, a good reasonable place to stay and relax</t>
+  </si>
+  <si>
+    <t>Working in the area, the Sleep Inn was a very good place to stay and literally on the edge of Lake Pontchartrain in the Eden Isles community. Access to New Orleans is very direct with the interstate just a couple blocks away. The hotel and staff is nice and the rooms are comfortable. For an economy hotel, you have a good place for resting, working and being able to get on the water or to your meetings very easily. There are a number of marina restaurants and grills nearby and Slidell has some very nice restaurants in the area. Getting onto the water is easy with a marina and boat launch just minutes away from the Sleep Inn. Overall, a good place to stay and a very reasonable rate for a good nights rest.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Terry F, General Manager at Sleep Inn, responded to this reviewResponded January 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 27, 2017</t>
+  </si>
+  <si>
+    <t>Working in the area, the Sleep Inn was a very good place to stay and literally on the edge of Lake Pontchartrain in the Eden Isles community. Access to New Orleans is very direct with the interstate just a couple blocks away. The hotel and staff is nice and the rooms are comfortable. For an economy hotel, you have a good place for resting, working and being able to get on the water or to your meetings very easily. There are a number of marina restaurants and grills nearby and Slidell has some very nice restaurants in the area. Getting onto the water is easy with a marina and boat launch just minutes away from the Sleep Inn. Overall, a good place to stay and a very reasonable rate for a good nights rest.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r451507620-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>451507620</t>
+  </si>
+  <si>
+    <t>01/12/2017</t>
+  </si>
+  <si>
+    <t>Bed Bugs/total of 5 rooms rented/bed bugs found in one room the next morning/ wish we had checked the night before/</t>
+  </si>
+  <si>
+    <t>Supposed 2b getting reimbursed 4 the room w bed bugs. Mattress filthy on the bottoms, they must flip them when they get stains. Feel we should be be reimbursed for more since we had to wash everything. MoreShow less</t>
+  </si>
+  <si>
+    <t>Terry F, General Manager at Sleep Inn, responded to this reviewResponded January 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 16, 2017</t>
+  </si>
+  <si>
+    <t>Supposed 2b getting reimbursed 4 the room w bed bugs. Mattress filthy on the bottoms, they must flip them when they get stains. Feel we should be be reimbursed for more since we had to wash everything. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r444719483-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>444719483</t>
+  </si>
+  <si>
+    <t>12/16/2016</t>
+  </si>
+  <si>
+    <t>Comfy Place To Crash After A Long Driving Day</t>
+  </si>
+  <si>
+    <t>We booked the Sleep Inn as the midway point for our family Thanksgiving migration.The room was clean, quiet, and comfortable. The rate was good for the type of property, and breakfast was amazing... we had waffles.Our kids liked it, and we will stop here again in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Terry F, General Manager at Sleep Inn, responded to this reviewResponded December 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 19, 2016</t>
+  </si>
+  <si>
+    <t>We booked the Sleep Inn as the midway point for our family Thanksgiving migration.The room was clean, quiet, and comfortable. The rate was good for the type of property, and breakfast was amazing... we had waffles.Our kids liked it, and we will stop here again in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r443583664-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>443583664</t>
+  </si>
+  <si>
+    <t>12/11/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A nice place </t>
+  </si>
+  <si>
+    <t>I stayed here for two nights.My room was on the second floor. The hotel does have an elevator.The staff at check-in and check out were friendly.The room was nice. I had a king size bed. The bed and pillows were comfortable. The water was hot for showering. Towels were softer then most places.The fridge and microwave worked as intended.I included a  photo of the pool from my window. It was too cold to use.I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Terry F, General Manager at Sleep Inn, responded to this reviewResponded December 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 14, 2016</t>
+  </si>
+  <si>
+    <t>I stayed here for two nights.My room was on the second floor. The hotel does have an elevator.The staff at check-in and check out were friendly.The room was nice. I had a king size bed. The bed and pillows were comfortable. The water was hot for showering. Towels were softer then most places.The fridge and microwave worked as intended.I included a  photo of the pool from my window. It was too cold to use.I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r434936580-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>434936580</t>
+  </si>
+  <si>
+    <t>11/05/2016</t>
+  </si>
+  <si>
+    <t>Don't stay here it's not safe!</t>
+  </si>
+  <si>
+    <t>Our room was robbed by the hotel staff using a key card.Front desk no help they said the staff was not their employee that they are a service that comes in to clean the rooms. We lost 1800 dollars in jewelry.  We filed a police report and then asked to speak to management they refused to return our call...Don't stay here it's not safe!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Terry F, General Manager at Sleep Inn, responded to this reviewResponded November 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 8, 2016</t>
+  </si>
+  <si>
+    <t>Our room was robbed by the hotel staff using a key card.Front desk no help they said the staff was not their employee that they are a service that comes in to clean the rooms. We lost 1800 dollars in jewelry.  We filed a police report and then asked to speak to management they refused to return our call...Don't stay here it's not safe!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r434442040-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>434442040</t>
+  </si>
+  <si>
+    <t>11/03/2016</t>
+  </si>
+  <si>
+    <t>Good location for a daily trip to NO</t>
+  </si>
+  <si>
+    <t>Used this hotel as a starting point for a daily trip to New Orleans (30 min driving away!). Affordable, clean, but no thirlls. Limited restaurant choices nearby, so make sure you arrive in time for dinner.MoreShow less</t>
+  </si>
+  <si>
+    <t>Terry F, General Manager at Sleep Inn, responded to this reviewResponded November 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 7, 2016</t>
+  </si>
+  <si>
+    <t>Used this hotel as a starting point for a daily trip to New Orleans (30 min driving away!). Affordable, clean, but no thirlls. Limited restaurant choices nearby, so make sure you arrive in time for dinner.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r424563095-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>424563095</t>
+  </si>
+  <si>
+    <t>10/02/2016</t>
+  </si>
+  <si>
+    <t>Our second visit, several years apart, and still the best choice!</t>
+  </si>
+  <si>
+    <t>We stayed here several years ago as it is convenient to New Orleans without the exorbitant rates. Terry had taken over as manager not too long before our first visit, and I was glad to see she was still there. We had a second floor room during our first visit, and a ground floor this most recent time. Both times, the rooms were very clean, linens were fresh, bathrooms were clean, and we had no complaints about the rooms at all.  We ate breakfast both times at the hotel, and there was a good variety of things on their buffet.  If one wanted more, there's a Waffle House conveniently located across the street!  The hotel is conveniently located to I-10, yet there is no highway noise.  The front desk and house keeping staff were friendly and outgoing. The next time we cruise out of New Orleans, we'll stay in Slidell at the Sleep Inn!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Terry F, General Manager at Sleep Inn, responded to this reviewResponded October 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 4, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here several years ago as it is convenient to New Orleans without the exorbitant rates. Terry had taken over as manager not too long before our first visit, and I was glad to see she was still there. We had a second floor room during our first visit, and a ground floor this most recent time. Both times, the rooms were very clean, linens were fresh, bathrooms were clean, and we had no complaints about the rooms at all.  We ate breakfast both times at the hotel, and there was a good variety of things on their buffet.  If one wanted more, there's a Waffle House conveniently located across the street!  The hotel is conveniently located to I-10, yet there is no highway noise.  The front desk and house keeping staff were friendly and outgoing. The next time we cruise out of New Orleans, we'll stay in Slidell at the Sleep Inn!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r422928112-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>422928112</t>
+  </si>
+  <si>
+    <t>09/27/2016</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>We stayed here for a couple of nights. The front desk help was so helpful and very welcoming! The hotel is okay. It needs some updating and new mattresses. The beds were very hard and uncomfortable. The rooms were ok cleaned ..lots of hair in the bathroom that was not ours. Very dusty and not clean behind table and night stand and under beds. The room also smelled very musty and mildew from the AC. The room was VERY small as well! And the bathroom was so tiny .. just a toilet and stand up shower. The continental breakfasts was good. The woman who takes care of it was so nice and so helpful!! I would stay again if the price was right and I couldn't find another place. MoreShow less</t>
+  </si>
+  <si>
+    <t>Terry F, General Manager at Sleep Inn, responded to this reviewResponded September 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 29, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here for a couple of nights. The front desk help was so helpful and very welcoming! The hotel is okay. It needs some updating and new mattresses. The beds were very hard and uncomfortable. The rooms were ok cleaned ..lots of hair in the bathroom that was not ours. Very dusty and not clean behind table and night stand and under beds. The room also smelled very musty and mildew from the AC. The room was VERY small as well! And the bathroom was so tiny .. just a toilet and stand up shower. The continental breakfasts was good. The woman who takes care of it was so nice and so helpful!! I would stay again if the price was right and I couldn't find another place. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r418276602-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>418276602</t>
+  </si>
+  <si>
+    <t>09/13/2016</t>
+  </si>
+  <si>
+    <t>Worst Inn</t>
+  </si>
+  <si>
+    <t>We have stayed at this Inn twice, once in April 2015 and then again in September 2016.  This Inn has deterioted drastically 16 months. The carpet in our room this time was filthy along with the television screen that you could write your name on the film on the screen. We travel a lot but we will never return to this inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>Terry F, General Manager at Sleep Inn, responded to this reviewResponded September 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 16, 2016</t>
+  </si>
+  <si>
+    <t>We have stayed at this Inn twice, once in April 2015 and then again in September 2016.  This Inn has deterioted drastically 16 months. The carpet in our room this time was filthy along with the television screen that you could write your name on the film on the screen. We travel a lot but we will never return to this inn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r417987059-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>417987059</t>
+  </si>
+  <si>
+    <t>Good sleep</t>
+  </si>
+  <si>
+    <t>This hotel was very nice for our 2 night stay.  The room was very comfortable.  The location is 30 minutes from the French Quarter, it was the best price for the area.  Staff was very friendly and responsive.  Would definitely stay again.  My room did not seem that it had been cleaned throughly, but staff remedied quickly.MoreShow less</t>
+  </si>
+  <si>
+    <t>Terry F, General Manager at Sleep Inn, responded to this reviewResponded September 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 14, 2016</t>
+  </si>
+  <si>
+    <t>This hotel was very nice for our 2 night stay.  The room was very comfortable.  The location is 30 minutes from the French Quarter, it was the best price for the area.  Staff was very friendly and responsive.  Would definitely stay again.  My room did not seem that it had been cleaned throughly, but staff remedied quickly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r401116577-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>401116577</t>
+  </si>
+  <si>
+    <t>08/03/2016</t>
+  </si>
+  <si>
+    <t>It was fine</t>
+  </si>
+  <si>
+    <t>I stayed here with a friend. It was nice and quiet. Not sure if breakfast was free, good, continental, full, etc because we both had work too early in the morning. The bed was comfortable and the A/C worked well. The clerks who checked us in and out were polite enough, no problems there. I would stay again if necessary. The price was not bad, but could have been a little cheaper.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Terry F, General Manager at Sleep Inn, responded to this reviewResponded August 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 5, 2016</t>
+  </si>
+  <si>
+    <t>I stayed here with a friend. It was nice and quiet. Not sure if breakfast was free, good, continental, full, etc because we both had work too early in the morning. The bed was comfortable and the A/C worked well. The clerks who checked us in and out were polite enough, no problems there. I would stay again if necessary. The price was not bad, but could have been a little cheaper.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r393367677-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>393367677</t>
+  </si>
+  <si>
+    <t>07/16/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nasty! </t>
+  </si>
+  <si>
+    <t>This hotel was just gross!  Stained linens, dirty room. Bathroom was so gross we felt like we needed another shower after using theirs. Yuck!  Wouldn't stay again or recommend. Luckily we were only passing through so only stayed one night.  Not much of a variety for breakfast and the space is very limited.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Terry F, General Manager at Sleep Inn, responded to this reviewResponded July 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 18, 2016</t>
+  </si>
+  <si>
+    <t>This hotel was just gross!  Stained linens, dirty room. Bathroom was so gross we felt like we needed another shower after using theirs. Yuck!  Wouldn't stay again or recommend. Luckily we were only passing through so only stayed one night.  Not much of a variety for breakfast and the space is very limited.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r391165094-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>391165094</t>
+  </si>
+  <si>
+    <t>07/10/2016</t>
+  </si>
+  <si>
+    <t>I hope</t>
+  </si>
+  <si>
+    <t>I hope Terry is there when I stay front counter person was'nt very friendly I ask if I could have a late check out because my family was checking out late in New Orleans she said they don't do late check outs so my family sit in the waffle house until they checked out and the room well I did'nt get what I asked for was told they was sorry all the rooms were booked and I booked two rooms so I got a smaller rooms didnt even try to make it right so disappointed hope this stay is better traveling with kidsMoreShow less</t>
+  </si>
+  <si>
+    <t>Terry F, General Manager at Sleep Inn, responded to this reviewResponded July 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 12, 2016</t>
+  </si>
+  <si>
+    <t>I hope Terry is there when I stay front counter person was'nt very friendly I ask if I could have a late check out because my family was checking out late in New Orleans she said they don't do late check outs so my family sit in the waffle house until they checked out and the room well I did'nt get what I asked for was told they was sorry all the rooms were booked and I booked two rooms so I got a smaller rooms didnt even try to make it right so disappointed hope this stay is better traveling with kidsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r389796239-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>389796239</t>
+  </si>
+  <si>
+    <t>07/06/2016</t>
+  </si>
+  <si>
+    <t>Dissappointed but its all good!!!</t>
+  </si>
+  <si>
+    <t>Only reason why this place gets a poor rating instead of a terrible rating is because of the Waffle House right next door and a empty one too in which I liked, but besides that I don't even no where to begin, the room was okay once we checked in but the next morning i found a dead roach on the floor, look like he was heading to the bathroom, and of course I get ready to check out and bam I notice the pillow had a stain in which don't take 1 day to make and we were out mainly the whole weekend(EssenceFest) it seem like the house keeping just turn the pillow around so u wouldn't see it, and I did housekeeping in my days(DoubleTree) and we had 15 floors and for them to have 3 floors that's a little lazy to me, I do recommend some more upgrades to the room's walls and bathroom, a wooden door for the shower and toilet area will not cut it for 2016. Again Waffle house is giving this place a break and its quick access to I-10 heading to New Orleans, besides that a terrible rating would be in order.MoreShow less</t>
+  </si>
+  <si>
+    <t>Terry F, General Manager at Sleep Inn, responded to this reviewResponded July 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 7, 2016</t>
+  </si>
+  <si>
+    <t>Only reason why this place gets a poor rating instead of a terrible rating is because of the Waffle House right next door and a empty one too in which I liked, but besides that I don't even no where to begin, the room was okay once we checked in but the next morning i found a dead roach on the floor, look like he was heading to the bathroom, and of course I get ready to check out and bam I notice the pillow had a stain in which don't take 1 day to make and we were out mainly the whole weekend(EssenceFest) it seem like the house keeping just turn the pillow around so u wouldn't see it, and I did housekeeping in my days(DoubleTree) and we had 15 floors and for them to have 3 floors that's a little lazy to me, I do recommend some more upgrades to the room's walls and bathroom, a wooden door for the shower and toilet area will not cut it for 2016. Again Waffle house is giving this place a break and its quick access to I-10 heading to New Orleans, besides that a terrible rating would be in order.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r370872408-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>370872408</t>
+  </si>
+  <si>
+    <t>05/07/2016</t>
+  </si>
+  <si>
+    <t>Worst Stay Ever!</t>
+  </si>
+  <si>
+    <t>We awoke at 4am to NO WATER! There was no one at the front desk or answered the phones for over an hour. When Chris (employee) finally returned to the front desk (again over an hour later), he claimed to have been upstairs making breakfast (My question then became...How were you making breakfast with NO WATER?) Yeah, I won't be eating that!Then he lied and said the water had just ran out....Totally lie because was off for at least 30 minutes before I called and then came downstairs to inquire.Needless to say,  We are checking out today. I'm not staying here my next two days. Thanks for ruining the start of my Mother's Day weekend!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Terry F, General Manager at Sleep Inn, responded to this reviewResponded May 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2016</t>
+  </si>
+  <si>
+    <t>We awoke at 4am to NO WATER! There was no one at the front desk or answered the phones for over an hour. When Chris (employee) finally returned to the front desk (again over an hour later), he claimed to have been upstairs making breakfast (My question then became...How were you making breakfast with NO WATER?) Yeah, I won't be eating that!Then he lied and said the water had just ran out....Totally lie because was off for at least 30 minutes before I called and then came downstairs to inquire.Needless to say,  We are checking out today. I'm not staying here my next two days. Thanks for ruining the start of my Mother's Day weekend!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r367383853-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>367383853</t>
+  </si>
+  <si>
+    <t>04/25/2016</t>
+  </si>
+  <si>
+    <t>Sleep Inn???  I would prefer to sleep elsewhere!</t>
+  </si>
+  <si>
+    <t>I don't know if our room was the worst of the entire hotel, but it certainly seemed that way.  The accommodations with 2 queen-sized beds was not large enough to adequately hold those beds &amp; allow for some human movement.  If you are a large to huge INSECT, then these quarters will do.  The W C was the size of a postage stamp &amp; contained a rusty stall shower (not very clean) &amp; toilet (also not very clean).  The wash basin was located just outside the WC.  If you are on any floor but the first, you must go to the first floor for ice.  Promised refrigerators were nowhere in sight, but if requested, were furnished the next day.  The air conditioning, turned to maximum, did not provide the room with enough cooling air &amp; the room smelled awful.  On the morning of 4/21/16, my roommate went to begin the process of getting ready for the day when she spotted a' gignormous' insect among her toiletries.  Unable to kill it, she summoned me from sleep.  I am not fond of trying to battle large insects (or s!!!mall ones for that matter), but I rose to the challenge.  My strategy was to disable it &amp; then go in for the kill.  Hairspray was the disabler &amp; a loose leaf binder was the actual weapon.  It just wouldn't die.  Finally, it met its maker &amp; was placed in a plastic cup, wedged...I don't know if our room was the worst of the entire hotel, but it certainly seemed that way.  The accommodations with 2 queen-sized beds was not large enough to adequately hold those beds &amp; allow for some human movement.  If you are a large to huge INSECT, then these quarters will do.  The W C was the size of a postage stamp &amp; contained a rusty stall shower (not very clean) &amp; toilet (also not very clean).  The wash basin was located just outside the WC.  If you are on any floor but the first, you must go to the first floor for ice.  Promised refrigerators were nowhere in sight, but if requested, were furnished the next day.  The air conditioning, turned to maximum, did not provide the room with enough cooling air &amp; the room smelled awful.  On the morning of 4/21/16, my roommate went to begin the process of getting ready for the day when she spotted a' gignormous' insect among her toiletries.  Unable to kill it, she summoned me from sleep.  I am not fond of trying to battle large insects (or s!!!mall ones for that matter), but I rose to the challenge.  My strategy was to disable it &amp; then go in for the kill.  Hairspray was the disabler &amp; a loose leaf binder was the actual weapon.  It just wouldn't die.  Finally, it met its maker &amp; was placed in a plastic cup, wedged with a second cup to assure that it would not resurrect.  the cups were left out in the hallway.  What a great start to the day!!!  Sleep Inn provided towels, some of which needed to be thrown into a rag pile as they were so thin.  The hotel also provided a breakfast (adequate to get a start), but there are few tables in their breakfast area, so you need to take what you can up to your small room w/no table or eat &amp; drink while standing up.Oops...I forget to mention that if you tried to place your soap on the shelf in the shower, it fell, along with the tiny containers of shampoo &amp; conditioner.If you can deal with all of this, by all means do Sleep Inn!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Terry F, General Manager at Sleep Inn, responded to this reviewResponded May 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 2, 2016</t>
+  </si>
+  <si>
+    <t>I don't know if our room was the worst of the entire hotel, but it certainly seemed that way.  The accommodations with 2 queen-sized beds was not large enough to adequately hold those beds &amp; allow for some human movement.  If you are a large to huge INSECT, then these quarters will do.  The W C was the size of a postage stamp &amp; contained a rusty stall shower (not very clean) &amp; toilet (also not very clean).  The wash basin was located just outside the WC.  If you are on any floor but the first, you must go to the first floor for ice.  Promised refrigerators were nowhere in sight, but if requested, were furnished the next day.  The air conditioning, turned to maximum, did not provide the room with enough cooling air &amp; the room smelled awful.  On the morning of 4/21/16, my roommate went to begin the process of getting ready for the day when she spotted a' gignormous' insect among her toiletries.  Unable to kill it, she summoned me from sleep.  I am not fond of trying to battle large insects (or s!!!mall ones for that matter), but I rose to the challenge.  My strategy was to disable it &amp; then go in for the kill.  Hairspray was the disabler &amp; a loose leaf binder was the actual weapon.  It just wouldn't die.  Finally, it met its maker &amp; was placed in a plastic cup, wedged...I don't know if our room was the worst of the entire hotel, but it certainly seemed that way.  The accommodations with 2 queen-sized beds was not large enough to adequately hold those beds &amp; allow for some human movement.  If you are a large to huge INSECT, then these quarters will do.  The W C was the size of a postage stamp &amp; contained a rusty stall shower (not very clean) &amp; toilet (also not very clean).  The wash basin was located just outside the WC.  If you are on any floor but the first, you must go to the first floor for ice.  Promised refrigerators were nowhere in sight, but if requested, were furnished the next day.  The air conditioning, turned to maximum, did not provide the room with enough cooling air &amp; the room smelled awful.  On the morning of 4/21/16, my roommate went to begin the process of getting ready for the day when she spotted a' gignormous' insect among her toiletries.  Unable to kill it, she summoned me from sleep.  I am not fond of trying to battle large insects (or s!!!mall ones for that matter), but I rose to the challenge.  My strategy was to disable it &amp; then go in for the kill.  Hairspray was the disabler &amp; a loose leaf binder was the actual weapon.  It just wouldn't die.  Finally, it met its maker &amp; was placed in a plastic cup, wedged with a second cup to assure that it would not resurrect.  the cups were left out in the hallway.  What a great start to the day!!!  Sleep Inn provided towels, some of which needed to be thrown into a rag pile as they were so thin.  The hotel also provided a breakfast (adequate to get a start), but there are few tables in their breakfast area, so you need to take what you can up to your small room w/no table or eat &amp; drink while standing up.Oops...I forget to mention that if you tried to place your soap on the shelf in the shower, it fell, along with the tiny containers of shampoo &amp; conditioner.If you can deal with all of this, by all means do Sleep Inn!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r365427898-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>365427898</t>
+  </si>
+  <si>
+    <t>04/19/2016</t>
+  </si>
+  <si>
+    <t>Great customer service! Average Hotel</t>
+  </si>
+  <si>
+    <t>First of all, the customer service at this hotel is top notch! From our reservations to check-in to check-out, everyone was very helpful and friendly.  We had late arrivals and everything was in order and easy.The hotel is a little older and it shows.  We were able to get a group discount so the value was definitely there, but it could use some updating.  The hotel is clean, but its age makes it feel that it isn't clean.  The breakfast was very good though.  I would stay here again, especially for the price and just needing one night, but again, it could use a lot of updates.MoreShow less</t>
+  </si>
+  <si>
+    <t>Terry F, General Manager at Sleep Inn, responded to this reviewResponded April 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 25, 2016</t>
+  </si>
+  <si>
+    <t>First of all, the customer service at this hotel is top notch! From our reservations to check-in to check-out, everyone was very helpful and friendly.  We had late arrivals and everything was in order and easy.The hotel is a little older and it shows.  We were able to get a group discount so the value was definitely there, but it could use some updating.  The hotel is clean, but its age makes it feel that it isn't clean.  The breakfast was very good though.  I would stay here again, especially for the price and just needing one night, but again, it could use a lot of updates.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r354534225-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>354534225</t>
+  </si>
+  <si>
+    <t>03/11/2016</t>
+  </si>
+  <si>
+    <t>Wonderful customer service</t>
+  </si>
+  <si>
+    <t>Had booked this hotel for a martial arts tournament this weekend and had to cancel due to weather. I booked a special rate through trip advisor and the policy's non refundable. However I was able to call and speak with Terry and explain my reasoning for needing to cancel. She had to go through some red tape to cancel and advised that my card have never been charged. Really hate that I had to cancel and would love to be on our way now but I can't control the weather and it was just too much of a risk. I can guarantee that if we compete in Slidelle again I'll be staying at Sleep InnMoreShow less</t>
+  </si>
+  <si>
+    <t>Had booked this hotel for a martial arts tournament this weekend and had to cancel due to weather. I booked a special rate through trip advisor and the policy's non refundable. However I was able to call and speak with Terry and explain my reasoning for needing to cancel. She had to go through some red tape to cancel and advised that my card have never been charged. Really hate that I had to cancel and would love to be on our way now but I can't control the weather and it was just too much of a risk. I can guarantee that if we compete in Slidelle again I'll be staying at Sleep InnMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r350907238-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>350907238</t>
+  </si>
+  <si>
+    <t>02/25/2016</t>
+  </si>
+  <si>
+    <t>I Wish I Could Recommend...</t>
+  </si>
+  <si>
+    <t>We've often stayed at Sleep Inns when road tripping and were generally pleased. I wish I could say this one was up to previous standards but we were disappointed.Although the public areas seemed clean and possibly refurbished, our room was pretty tired looking. There seemed to be quite a "patchwork" and the carpet felt..., well, not too clean.An okay one night on the way to or from New Orleans, but otherwise we'd look elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>Terry F, General Manager at Sleep Inn, responded to this reviewResponded February 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 29, 2016</t>
+  </si>
+  <si>
+    <t>We've often stayed at Sleep Inns when road tripping and were generally pleased. I wish I could say this one was up to previous standards but we were disappointed.Although the public areas seemed clean and possibly refurbished, our room was pretty tired looking. There seemed to be quite a "patchwork" and the carpet felt..., well, not too clean.An okay one night on the way to or from New Orleans, but otherwise we'd look elsewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r345657055-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>345657055</t>
+  </si>
+  <si>
+    <t>02/07/2016</t>
+  </si>
+  <si>
+    <t>Mardi Gras Trip</t>
+  </si>
+  <si>
+    <t>Stayed in this hotel for Mardi Gras 2016. The location was perfect, immediately off the highway. The price for the area was excellent as well considering the time. There was only a short drive to French Quarters. When we arrived, the lobby area was so clean and bright and welcoming with a mardi gras theme.  There were cupcakes and king cakes sitting out for guest. Check in was smooth.  Room was on 1st floor (109) and was very nice. The size was decent.  The most impressive thing about it was that there was a  wireless printer for the occupants use.  The room came with the usual amenities although there was a note stating if your room did not have a refrigerator or microwave they apologized for the inconvenience but all their items were in use. The bed did come with 4 super small pillows. The bed did sleep well. The biggest complaint about the room was that it had only 1 free outlet in the entire room beanies the one at the bathroom sink. This free outlet was located on the one lamp in the room. I  could charge my phone at night but my mate had to plug his in the bathroom area. The breakfast served in the morning was sausage links, eggs and the usual waffle station, fruit and pastries. It was better than many but I have had better at a sleep inn.  Overall,  the stay was...Stayed in this hotel for Mardi Gras 2016. The location was perfect, immediately off the highway. The price for the area was excellent as well considering the time. There was only a short drive to French Quarters. When we arrived, the lobby area was so clean and bright and welcoming with a mardi gras theme.  There were cupcakes and king cakes sitting out for guest. Check in was smooth.  Room was on 1st floor (109) and was very nice. The size was decent.  The most impressive thing about it was that there was a  wireless printer for the occupants use.  The room came with the usual amenities although there was a note stating if your room did not have a refrigerator or microwave they apologized for the inconvenience but all their items were in use. The bed did come with 4 super small pillows. The bed did sleep well. The biggest complaint about the room was that it had only 1 free outlet in the entire room beanies the one at the bathroom sink. This free outlet was located on the one lamp in the room. I  could charge my phone at night but my mate had to plug his in the bathroom area. The breakfast served in the morning was sausage links, eggs and the usual waffle station, fruit and pastries. It was better than many but I have had better at a sleep inn.  Overall,  the stay was very pleasant.  There was one male staff who was very nice. I would stay again and would recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Terry F, General Manager at Sleep Inn, responded to this reviewResponded February 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 8, 2016</t>
+  </si>
+  <si>
+    <t>Stayed in this hotel for Mardi Gras 2016. The location was perfect, immediately off the highway. The price for the area was excellent as well considering the time. There was only a short drive to French Quarters. When we arrived, the lobby area was so clean and bright and welcoming with a mardi gras theme.  There were cupcakes and king cakes sitting out for guest. Check in was smooth.  Room was on 1st floor (109) and was very nice. The size was decent.  The most impressive thing about it was that there was a  wireless printer for the occupants use.  The room came with the usual amenities although there was a note stating if your room did not have a refrigerator or microwave they apologized for the inconvenience but all their items were in use. The bed did come with 4 super small pillows. The bed did sleep well. The biggest complaint about the room was that it had only 1 free outlet in the entire room beanies the one at the bathroom sink. This free outlet was located on the one lamp in the room. I  could charge my phone at night but my mate had to plug his in the bathroom area. The breakfast served in the morning was sausage links, eggs and the usual waffle station, fruit and pastries. It was better than many but I have had better at a sleep inn.  Overall,  the stay was...Stayed in this hotel for Mardi Gras 2016. The location was perfect, immediately off the highway. The price for the area was excellent as well considering the time. There was only a short drive to French Quarters. When we arrived, the lobby area was so clean and bright and welcoming with a mardi gras theme.  There were cupcakes and king cakes sitting out for guest. Check in was smooth.  Room was on 1st floor (109) and was very nice. The size was decent.  The most impressive thing about it was that there was a  wireless printer for the occupants use.  The room came with the usual amenities although there was a note stating if your room did not have a refrigerator or microwave they apologized for the inconvenience but all their items were in use. The bed did come with 4 super small pillows. The bed did sleep well. The biggest complaint about the room was that it had only 1 free outlet in the entire room beanies the one at the bathroom sink. This free outlet was located on the one lamp in the room. I  could charge my phone at night but my mate had to plug his in the bathroom area. The breakfast served in the morning was sausage links, eggs and the usual waffle station, fruit and pastries. It was better than many but I have had better at a sleep inn.  Overall,  the stay was very pleasant.  There was one male staff who was very nice. I would stay again and would recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r344336973-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>344336973</t>
+  </si>
+  <si>
+    <t>02/01/2016</t>
+  </si>
+  <si>
+    <t>Excellent Customer Service</t>
+  </si>
+  <si>
+    <t>I had to cancel my reservation due to a change in trip plans and the cancellation deadline ended 2 days prior. So I called the hotel to see if I could get some type of credit or if something else could be worked out. I called and the manager (Terry Fraizer) had already refunded the charge to my account before I called. She did not have to do this and I am very grateful for her generous act of kindness. Whenever I do make it down there I plan on staying at this hotel because I know that it is run with southern hospitality and not just to make money.MoreShow less</t>
+  </si>
+  <si>
+    <t>Terry F, General Manager at Sleep Inn, responded to this reviewResponded February 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 4, 2016</t>
+  </si>
+  <si>
+    <t>I had to cancel my reservation due to a change in trip plans and the cancellation deadline ended 2 days prior. So I called the hotel to see if I could get some type of credit or if something else could be worked out. I called and the manager (Terry Fraizer) had already refunded the charge to my account before I called. She did not have to do this and I am very grateful for her generous act of kindness. Whenever I do make it down there I plan on staying at this hotel because I know that it is run with southern hospitality and not just to make money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r342480823-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>342480823</t>
+  </si>
+  <si>
+    <t>01/24/2016</t>
+  </si>
+  <si>
+    <t>Fantastic experience</t>
+  </si>
+  <si>
+    <t>We booked a room on points here for the night after the Sugar Bowl. We got the suite and it was fantastic. The people were very nice. We got a nice present when we got in. The location is good if you want to be on this side of New Orleans. All around a perfect experience!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Terry F, General Manager at Sleep Inn, responded to this reviewResponded January 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 26, 2016</t>
+  </si>
+  <si>
+    <t>We booked a room on points here for the night after the Sugar Bowl. We got the suite and it was fantastic. The people were very nice. We got a nice present when we got in. The location is good if you want to be on this side of New Orleans. All around a perfect experience!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r326550052-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>326550052</t>
+  </si>
+  <si>
+    <t>11/13/2015</t>
+  </si>
+  <si>
+    <t>Clean and quiet</t>
+  </si>
+  <si>
+    <t>Went to check in and was greeted (not really) by young lady who took info and gave me key to room. Room was clean but showing a bit of its age, battery missing from smoke alarm and light in shower not working. Sleep was comfortable only noise was AC unit. Breakfast was the usual fare. Went to check out and greeted by Mickey. She asked about room told her was comfortable and about battery and light. She apologized and said should have been caught by housekeeping. She thanked me for being a Choice Privileges member and asked if I received gift bag when I checked in, told her no I didn't and that young lady at check in didn't thank me for being member or to welcome me. She made up for the welcomeMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Terry F, General Manager at Sleep Inn, responded to this reviewResponded November 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 16, 2015</t>
+  </si>
+  <si>
+    <t>Went to check in and was greeted (not really) by young lady who took info and gave me key to room. Room was clean but showing a bit of its age, battery missing from smoke alarm and light in shower not working. Sleep was comfortable only noise was AC unit. Breakfast was the usual fare. Went to check out and greeted by Mickey. She asked about room told her was comfortable and about battery and light. She apologized and said should have been caught by housekeeping. She thanked me for being a Choice Privileges member and asked if I received gift bag when I checked in, told her no I didn't and that young lady at check in didn't thank me for being member or to welcome me. She made up for the welcomeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r317600861-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>317600861</t>
+  </si>
+  <si>
+    <t>10/10/2015</t>
+  </si>
+  <si>
+    <t>PHENOMENAL!</t>
+  </si>
+  <si>
+    <t>I can't say enough good things about this hotel - it was clean, roomy, good temperature control, and an okay breakfast.  HOWEVER, the staff (especially the general manager, Terry) were phenomenal!!  Very friendly and accommodating.  Everyone on the bus appreciated the extra effort, but as the group leader, I was e enough more grateful!  Thank you all so much!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Terry F, General Manager at Sleep Inn, responded to this reviewResponded October 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 12, 2015</t>
+  </si>
+  <si>
+    <t>I can't say enough good things about this hotel - it was clean, roomy, good temperature control, and an okay breakfast.  HOWEVER, the staff (especially the general manager, Terry) were phenomenal!!  Very friendly and accommodating.  Everyone on the bus appreciated the extra effort, but as the group leader, I was e enough more grateful!  Thank you all so much!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r304461267-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>304461267</t>
+  </si>
+  <si>
+    <t>08/28/2015</t>
+  </si>
+  <si>
+    <t>Clean rooms. Nice staff</t>
+  </si>
+  <si>
+    <t>I've stayed here a couple of times over the last 13 months and it's a nice place to rest if you're in the area. Clean rooms with a decent amount of power to charge your devices. No bathtub to soak in. Not much in the way of food at that exit but plenty of choices within 5 miles up the interstate. Breakfast area is very small and it offers the usual hotel selection for breakfast. Pool but no hot tub. Business class hotel rooms have a printer in room for your use which is something unique that I've never seen before. It's a decent hotel but don't expect a lot of the amenities that you would expect from a higher end hotel. Bottom line is I'd probably stay here again if I'm in the area on business. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Terry F, General Manager at Sleep Inn, responded to this reviewResponded August 31, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 31, 2015</t>
+  </si>
+  <si>
+    <t>I've stayed here a couple of times over the last 13 months and it's a nice place to rest if you're in the area. Clean rooms with a decent amount of power to charge your devices. No bathtub to soak in. Not much in the way of food at that exit but plenty of choices within 5 miles up the interstate. Breakfast area is very small and it offers the usual hotel selection for breakfast. Pool but no hot tub. Business class hotel rooms have a printer in room for your use which is something unique that I've never seen before. It's a decent hotel but don't expect a lot of the amenities that you would expect from a higher end hotel. Bottom line is I'd probably stay here again if I'm in the area on business. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r300031013-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>300031013</t>
+  </si>
+  <si>
+    <t>08/16/2015</t>
+  </si>
+  <si>
+    <t>Friendly and clean</t>
+  </si>
+  <si>
+    <t>Stayed at this Sleep Inn many times over the last year to be near New Orleans without being in the city with our family. Staff is friendly and helpful, rooms are clean and comfortable. Perfect accommodations for a family. Will certainly stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>Terry F, General Manager at Sleep Inn, responded to this reviewResponded August 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 17, 2015</t>
+  </si>
+  <si>
+    <t>Stayed at this Sleep Inn many times over the last year to be near New Orleans without being in the city with our family. Staff is friendly and helpful, rooms are clean and comfortable. Perfect accommodations for a family. Will certainly stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r300030986-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>300030986</t>
+  </si>
+  <si>
+    <t>Stay here often!</t>
+  </si>
+  <si>
+    <t>We stay here frequently (8-10 times a year)  for family gatherings.  Staff are friendly and courteous.  Love the room updates.  Breakfast covers the  the needs of our whole family.  Kids love the pool.  Rooms and lobby are always clean. They have even mailed me my pillow when left behind... Twice!   Great place to stay, close to the interstate and not far for a quick trip into the city (NOLA).MoreShow less</t>
+  </si>
+  <si>
+    <t>Terry F, General Manager at Sleep Inn, responded to this reviewResponded August 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 19, 2015</t>
+  </si>
+  <si>
+    <t>We stay here frequently (8-10 times a year)  for family gatherings.  Staff are friendly and courteous.  Love the room updates.  Breakfast covers the  the needs of our whole family.  Kids love the pool.  Rooms and lobby are always clean. They have even mailed me my pillow when left behind... Twice!   Great place to stay, close to the interstate and not far for a quick trip into the city (NOLA).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r300028286-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>300028286</t>
+  </si>
+  <si>
+    <t>Great value and convenient to Downtown New Orleans</t>
+  </si>
+  <si>
+    <t>Whenever I am visiting New Orleans or St. Tammany Parish on business, I always stay at the Sleep Inn in Slidell.  It is a great value and an easy commute to Downtown New Orleans.  The rooms are neat and clean, and the entire property is well maintained.  The staff is very friendly and always helpful.  A great value for the money!MoreShow less</t>
+  </si>
+  <si>
+    <t>Whenever I am visiting New Orleans or St. Tammany Parish on business, I always stay at the Sleep Inn in Slidell.  It is a great value and an easy commute to Downtown New Orleans.  The rooms are neat and clean, and the entire property is well maintained.  The staff is very friendly and always helpful.  A great value for the money!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r299998504-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>299998504</t>
+  </si>
+  <si>
+    <t>Good Old R&amp;R!!</t>
+  </si>
+  <si>
+    <t>I have been staying at Choice Hotels for years and am particularly fond of Sleep Inns. I always know what to expect: a clean hotel, friendly staff, and peace and quiet. This Sleep Inn was no exception! Lovely area near the water and not too far from great food and shopping and of course New Orleans! Room was clean, bed was comfy, and I felt like the only person there it was so quiet! I saw a few bad reviews on here before booking, but I had no problems during my stay. Everything was just lovely! 10/10!MoreShow less</t>
+  </si>
+  <si>
+    <t>I have been staying at Choice Hotels for years and am particularly fond of Sleep Inns. I always know what to expect: a clean hotel, friendly staff, and peace and quiet. This Sleep Inn was no exception! Lovely area near the water and not too far from great food and shopping and of course New Orleans! Room was clean, bed was comfy, and I felt like the only person there it was so quiet! I saw a few bad reviews on here before booking, but I had no problems during my stay. Everything was just lovely! 10/10!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r299982203-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>299982203</t>
+  </si>
+  <si>
+    <t>Sleep Inn - Slidell</t>
+  </si>
+  <si>
+    <t>Had to go to New Orleans for business and I wanted to say near the city but not in the city by myself.  I decided to stay at the Sleep Inn in Slidell and found it was closer to New Orleans than I thought.  My stay was great!  The staff was quite friendly and helpful.  My room was clean and very comfortable, and loved the large walk-in shower.The breakfast served met all of my needs to get me in and out quickly in the morning.Check this place out if you are headed to New Orleans.MoreShow less</t>
+  </si>
+  <si>
+    <t>Had to go to New Orleans for business and I wanted to say near the city but not in the city by myself.  I decided to stay at the Sleep Inn in Slidell and found it was closer to New Orleans than I thought.  My stay was great!  The staff was quite friendly and helpful.  My room was clean and very comfortable, and loved the large walk-in shower.The breakfast served met all of my needs to get me in and out quickly in the morning.Check this place out if you are headed to New Orleans.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r295013602-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>295013602</t>
+  </si>
+  <si>
+    <t>08/02/2015</t>
+  </si>
+  <si>
+    <t>Roach infested</t>
+  </si>
+  <si>
+    <t>I thought I was getting a good deal on a hotel for the weekend. I thought wrong. This place is roach infested! I counted 6 small roaches over my 2 night stay here. And, I was not in the room during the day, only to sleep at night! The lobby is nice however deceiving b/c the actual rooms are old and outdated. I am never staying here again! I'd rather spend the extra money and not sleep with roaches!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r285858969-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>285858969</t>
+  </si>
+  <si>
+    <t>07/05/2015</t>
+  </si>
+  <si>
+    <t>Very quiet</t>
+  </si>
+  <si>
+    <t>We took a two night trip away and stayed here and it was a quiet place to stay. There were lots of others staying there but not much noise at all. No real road noises either. Very clean rooms! Courteous staff.....only issue is there was no do not disturb signs for the door..... A must have for sleeping in MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Terry F, General Manager at Sleep Inn, responded to this reviewResponded July 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 8, 2015</t>
+  </si>
+  <si>
+    <t>We took a two night trip away and stayed here and it was a quiet place to stay. There were lots of others staying there but not much noise at all. No real road noises either. Very clean rooms! Courteous staff.....only issue is there was no do not disturb signs for the door..... A must have for sleeping in More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r284336797-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>284336797</t>
+  </si>
+  <si>
+    <t>06/30/2015</t>
+  </si>
+  <si>
+    <t>USA Volleyball</t>
+  </si>
+  <si>
+    <t>Surprisingly nice, clean and friendly.  Swimming pool for the kids and shopping nearby. A great place to stop, reasonable rates, nice breakfast &amp; conveniently located just off I-10 about 30 minutes from the French Quarter.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Terry F, General Manager at Sleep Inn, responded to this reviewResponded July 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 2, 2015</t>
+  </si>
+  <si>
+    <t>Surprisingly nice, clean and friendly.  Swimming pool for the kids and shopping nearby. A great place to stop, reasonable rates, nice breakfast &amp; conveniently located just off I-10 about 30 minutes from the French Quarter.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r281703017-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>281703017</t>
+  </si>
+  <si>
+    <t>06/20/2015</t>
+  </si>
+  <si>
+    <t>Expected better</t>
+  </si>
+  <si>
+    <t>The check in was quick, Iike that, the room was quiet, the breakfast was good, wafles, muffins, eggs, saussges, fruit, yogurt, cereal, etc. On the other hand the room had a mushy smell and the carpet and walls look dirty. The bathroom was not cleaned (in weeks in some spots ) and the shower door squeak loudly, it is manteined in poor condition. I will not stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>Terry F, General Manager at Sleep Inn, responded to this reviewResponded June 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 22, 2015</t>
+  </si>
+  <si>
+    <t>The check in was quick, Iike that, the room was quiet, the breakfast was good, wafles, muffins, eggs, saussges, fruit, yogurt, cereal, etc. On the other hand the room had a mushy smell and the carpet and walls look dirty. The bathroom was not cleaned (in weeks in some spots ) and the shower door squeak loudly, it is manteined in poor condition. I will not stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r272253685-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>272253685</t>
+  </si>
+  <si>
+    <t>05/15/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stop over on the way to Nola </t>
+  </si>
+  <si>
+    <t>Nice rooms , spacious and comfortable. Easy on and off interstate.right next door to Waffle House very convenient! Service station across the road. Only 30 minutes from New Orleans, 35 minutes to the port for the cruise ships. Inexpensive!MoreShow less</t>
+  </si>
+  <si>
+    <t>Terry F, General Manager at Sleep Inn, responded to this reviewResponded May 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2015</t>
+  </si>
+  <si>
+    <t>Nice rooms , spacious and comfortable. Easy on and off interstate.right next door to Waffle House very convenient! Service station across the road. Only 30 minutes from New Orleans, 35 minutes to the port for the cruise ships. Inexpensive!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r271348430-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>271348430</t>
+  </si>
+  <si>
+    <t>05/11/2015</t>
+  </si>
+  <si>
+    <t>Good for overnight stay</t>
+  </si>
+  <si>
+    <t>I was concerned that this location would be noisy along the interstate but I enjoyed a quiet restful night before a great early morning fishing trip.  The manager opened the small continental breakfast early for us once he realized that we were leaving the hotel by 5:30 am.  Great fresh coffee all day long.  The lobby is updated but noticed a few dated areas in the sleeping rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Terry F, General Manager at Sleep Inn, responded to this reviewResponded May 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 12, 2015</t>
+  </si>
+  <si>
+    <t>I was concerned that this location would be noisy along the interstate but I enjoyed a quiet restful night before a great early morning fishing trip.  The manager opened the small continental breakfast early for us once he realized that we were leaving the hotel by 5:30 am.  Great fresh coffee all day long.  The lobby is updated but noticed a few dated areas in the sleeping rooms.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r267728276-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>267728276</t>
+  </si>
+  <si>
+    <t>04/24/2015</t>
+  </si>
+  <si>
+    <t>Fair price</t>
+  </si>
+  <si>
+    <t>Stayed one night with coworker and her children because we had a business appointment in New Orleans early the next morning.  Hotel was easy to get to from the interstate. All inside doors which is a plus when you have children with you. Was fair on price, and just okay on cleanliness in room, there was some popcorn in the floor when we checked in.  Very small rooms, getting out of the bed closest to window meant knees against the air conditioner. Pocket door bathroom with small standing shower. There was nice sized TV, a microwave, refrigerator, and iron in the room. Wifi was spotty and slow.  It was quiet, and I would stay again if in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Terry F, General Manager at Sleep Inn, responded to this reviewResponded April 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2015</t>
+  </si>
+  <si>
+    <t>Stayed one night with coworker and her children because we had a business appointment in New Orleans early the next morning.  Hotel was easy to get to from the interstate. All inside doors which is a plus when you have children with you. Was fair on price, and just okay on cleanliness in room, there was some popcorn in the floor when we checked in.  Very small rooms, getting out of the bed closest to window meant knees against the air conditioner. Pocket door bathroom with small standing shower. There was nice sized TV, a microwave, refrigerator, and iron in the room. Wifi was spotty and slow.  It was quiet, and I would stay again if in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r262173563-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>262173563</t>
+  </si>
+  <si>
+    <t>03/27/2015</t>
+  </si>
+  <si>
+    <t>A very good Sleep Inn</t>
+  </si>
+  <si>
+    <t>I was visiting New Orleans and decided to stay in Slidell to get a little cheaper lodging.  I was coming in from the East and Slidell is about 25 mi. from downtown New Orleans.  This is a standard Sleep Inn which is very well maintained.  I have stayed at many Sleep Inns and though the rooms and bath are small, I am happy with their facilities.  The building is not new but it is clean and has been very well maintained.  It is the typical motel along the freeway, but it is far enough from the interstate to be quiet. I had a very good stay.  I would have rated it higher if it were a bit less pricey.  But it is cheaper than New Orleans.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Terry F, General Manager at Sleep Inn, responded to this reviewResponded March 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2015</t>
+  </si>
+  <si>
+    <t>I was visiting New Orleans and decided to stay in Slidell to get a little cheaper lodging.  I was coming in from the East and Slidell is about 25 mi. from downtown New Orleans.  This is a standard Sleep Inn which is very well maintained.  I have stayed at many Sleep Inns and though the rooms and bath are small, I am happy with their facilities.  The building is not new but it is clean and has been very well maintained.  It is the typical motel along the freeway, but it is far enough from the interstate to be quiet. I had a very good stay.  I would have rated it higher if it were a bit less pricey.  But it is cheaper than New Orleans.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r257545739-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>257545739</t>
+  </si>
+  <si>
+    <t>03/03/2015</t>
+  </si>
+  <si>
+    <t>Great spot!</t>
+  </si>
+  <si>
+    <t>Nice rooms for the price. Great Seafood restaurant close by. Excellent Continental breakfast. Only 30 miles from New Orleans. Rooms are well equipped with Fridge, coffee. Staff are very friendly and helpfull.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Terry F, General Manager at Sleep Inn, responded to this reviewResponded March 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 5, 2015</t>
+  </si>
+  <si>
+    <t>Nice rooms for the price. Great Seafood restaurant close by. Excellent Continental breakfast. Only 30 miles from New Orleans. Rooms are well equipped with Fridge, coffee. Staff are very friendly and helpfull.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r257473584-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>257473584</t>
+  </si>
+  <si>
+    <t>First Visit to New Orleans</t>
+  </si>
+  <si>
+    <t>This was our first visit to New Orleans and because of Mardi Gras and "no availability" downtown (or outrageous fees) we found this treasure for our stay searching comments on Trip Advisor.  Decided to wait until after Fat Tuesday and stayed at this hotel on February 20, 2015.    So conveniently located off Interstate Highway 10 and a short 20 mile drive and you are in New Orleans.Lovely, quiet, good breakfast and delightful, helpful staff.  Bonus - Phil's Marina Cafe just minutes away for a great dinner.So glad we trusted Trip Advisor once again.  Thanks everybody.MoreShow less</t>
+  </si>
+  <si>
+    <t>This was our first visit to New Orleans and because of Mardi Gras and "no availability" downtown (or outrageous fees) we found this treasure for our stay searching comments on Trip Advisor.  Decided to wait until after Fat Tuesday and stayed at this hotel on February 20, 2015.    So conveniently located off Interstate Highway 10 and a short 20 mile drive and you are in New Orleans.Lovely, quiet, good breakfast and delightful, helpful staff.  Bonus - Phil's Marina Cafe just minutes away for a great dinner.So glad we trusted Trip Advisor once again.  Thanks everybody.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r250909742-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>250909742</t>
+  </si>
+  <si>
+    <t>01/25/2015</t>
+  </si>
+  <si>
+    <t>Great pick for us</t>
+  </si>
+  <si>
+    <t>Room clean and quiet, area feels safe, great "TA highly rated" marina cafe just half mile away, hotel is just off interstate, Waffle House across the street, got a great price, etc...great stay for our one night before leaving on our cruise. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Terry F, General Manager at Sleep Inn, responded to this reviewResponded January 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 26, 2015</t>
+  </si>
+  <si>
+    <t>Room clean and quiet, area feels safe, great "TA highly rated" marina cafe just half mile away, hotel is just off interstate, Waffle House across the street, got a great price, etc...great stay for our one night before leaving on our cruise. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r249524086-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>249524086</t>
+  </si>
+  <si>
+    <t>01/15/2015</t>
+  </si>
+  <si>
+    <t>Second stay's a charm</t>
+  </si>
+  <si>
+    <t>Ipriced rooms in NOLA, but due to a convention, the rooms were upwards of $300. We just needed a nice, clean, quiet place for the night. I stayed here earlier in the year, again, for the same reasons....too high rooms in NOLA.  This hotel is is quick drive in and out of NOLA. It is clean and quiet. Not many frills, but that is ok. We got a good night's sleep. The rooms are a bit small and there is just a shower, but that posed no problems for us. Since I knew the rooms were on the smaller side, I booked the deluxe queen beds room this time. What we got was the same sized room with another kitchenette room with sofa, no tv in that room though. The extra room was great with our suitcases and then the extra smaller bags that my mother seems to need! We had plenty of room and my husband likes to get up early &amp; drink coffee alone and without tv. The extra room was perfect. When we return to the area and have the need, we would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Terry F, General Manager at Sleep Inn, responded to this reviewResponded January 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 19, 2015</t>
+  </si>
+  <si>
+    <t>Ipriced rooms in NOLA, but due to a convention, the rooms were upwards of $300. We just needed a nice, clean, quiet place for the night. I stayed here earlier in the year, again, for the same reasons....too high rooms in NOLA.  This hotel is is quick drive in and out of NOLA. It is clean and quiet. Not many frills, but that is ok. We got a good night's sleep. The rooms are a bit small and there is just a shower, but that posed no problems for us. Since I knew the rooms were on the smaller side, I booked the deluxe queen beds room this time. What we got was the same sized room with another kitchenette room with sofa, no tv in that room though. The extra room was great with our suitcases and then the extra smaller bags that my mother seems to need! We had plenty of room and my husband likes to get up early &amp; drink coffee alone and without tv. The extra room was perfect. When we return to the area and have the need, we would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r245927895-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>245927895</t>
+  </si>
+  <si>
+    <t>12/26/2014</t>
+  </si>
+  <si>
+    <t>Good Hotel for an Overnight While Traveling</t>
+  </si>
+  <si>
+    <t>This hotel is a typical Sleep Inn. The room was clean and comfortable. The price is reasonable. It is located in a very nice area. I was traveling alone, arrived late at night, but felt very safe. This location is the first exit over the lake, east of New Orleans. I was visiting family in New Orleans. At this location, I was able to avoid the congested traffic, impossible parking, and unsavory people in the crowded city. I appreciated having the fridge and microwave, though it was not included in the description online. The staff was very friendly, polite, and efficient. The interior was undergoing some renovation on the first floor near my room, but the construction didn't start early, so I was able to sleep I late before it began. My only complaint would be the breakfast. I never expect much from a free breakfast, but this one was particularly unappetizing. The hot food was imitation scrambled eggs and pale undercooked link sausages. I ended up eating a cold boiled egg, yogurt, and pastry. However, I could have used the waffle machine or eaten at the Waffle House next door. I liked the free newspaper and wireless. I would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Terry F, General Manager at Sleep Inn, responded to this reviewResponded December 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 29, 2014</t>
+  </si>
+  <si>
+    <t>This hotel is a typical Sleep Inn. The room was clean and comfortable. The price is reasonable. It is located in a very nice area. I was traveling alone, arrived late at night, but felt very safe. This location is the first exit over the lake, east of New Orleans. I was visiting family in New Orleans. At this location, I was able to avoid the congested traffic, impossible parking, and unsavory people in the crowded city. I appreciated having the fridge and microwave, though it was not included in the description online. The staff was very friendly, polite, and efficient. The interior was undergoing some renovation on the first floor near my room, but the construction didn't start early, so I was able to sleep I late before it began. My only complaint would be the breakfast. I never expect much from a free breakfast, but this one was particularly unappetizing. The hot food was imitation scrambled eggs and pale undercooked link sausages. I ended up eating a cold boiled egg, yogurt, and pastry. However, I could have used the waffle machine or eaten at the Waffle House next door. I liked the free newspaper and wireless. I would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r243741316-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>243741316</t>
+  </si>
+  <si>
+    <t>12/09/2014</t>
+  </si>
+  <si>
+    <t>I would stay here again! Love it👍👍👍👍</t>
+  </si>
+  <si>
+    <t>I would stay here again.... I love it here at this hotel.. It was late last night when checked i, but justin was so nice to me.  He help me with the price of the room.. We talked about different things.. He noticed I was a diamond member. Gave me a goodie bag when I check in.. MoreShow less</t>
+  </si>
+  <si>
+    <t>Terry F, General Manager at Sleep Inn, responded to this reviewResponded December 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 11, 2014</t>
+  </si>
+  <si>
+    <t>I would stay here again.... I love it here at this hotel.. It was late last night when checked i, but justin was so nice to me.  He help me with the price of the room.. We talked about different things.. He noticed I was a diamond member. Gave me a goodie bag when I check in.. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r242967472-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>242967472</t>
+  </si>
+  <si>
+    <t>12/04/2014</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>The staff was very nice and pleasant. Breakfast was enjoyable.  The room that we stayed in was far from clean, at first look it looked clean.  But with a little closer look it was not that clean.  If I' am ever back this away I will give them another try.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Terry F, General Manager at Sleep Inn, responded to this reviewResponded December 8, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 8, 2014</t>
+  </si>
+  <si>
+    <t>The staff was very nice and pleasant. Breakfast was enjoyable.  The room that we stayed in was far from clean, at first look it looked clean.  But with a little closer look it was not that clean.  If I' am ever back this away I will give them another try.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r242566321-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>242566321</t>
+  </si>
+  <si>
+    <t>12/02/2014</t>
+  </si>
+  <si>
+    <t>Surprise and relief!</t>
+  </si>
+  <si>
+    <t>We traveled to New Orleans for Thanksgiving and had reservations on Bourbon Street but because of protestors and we had grandchildren with us we had to make other arrangements quickly. The Sleep Inn in Slidell worked perfectly! Who woulda thunk?!? Lovely Inn, newly remodeled rooms and a very pleasant staff made our stay great. The manager went out of her way to accommodate our family! Very quiet, did not hear the neighbors. Breakfast was good, assorted muffins, bagels, waffles, eggs, sausage, coffee, juice, typical hotel breakfast. Waffle House is right out the side door if you have a hankerin' for their awesome smothered potatoes! Would recommend staying here if you have family you are visiting close by!MoreShow less</t>
+  </si>
+  <si>
+    <t>Terry F, General Manager at Sleep Inn, responded to this reviewResponded December 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 4, 2014</t>
+  </si>
+  <si>
+    <t>We traveled to New Orleans for Thanksgiving and had reservations on Bourbon Street but because of protestors and we had grandchildren with us we had to make other arrangements quickly. The Sleep Inn in Slidell worked perfectly! Who woulda thunk?!? Lovely Inn, newly remodeled rooms and a very pleasant staff made our stay great. The manager went out of her way to accommodate our family! Very quiet, did not hear the neighbors. Breakfast was good, assorted muffins, bagels, waffles, eggs, sausage, coffee, juice, typical hotel breakfast. Waffle House is right out the side door if you have a hankerin' for their awesome smothered potatoes! Would recommend staying here if you have family you are visiting close by!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r227197713-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>227197713</t>
+  </si>
+  <si>
+    <t>09/05/2014</t>
+  </si>
+  <si>
+    <t>Very Nice</t>
+  </si>
+  <si>
+    <t>All in all what we have come to expect at Sleep Inns. Nice friendly people seems to be their signature business model.  We have never been unhappy staying at Sleep Inns. The breakfast area was very clean and the food was fresh and tasty. The fruit was fresh, milk cold and coffee hot.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Terry F, General Manager at Sleep Inn, responded to this reviewResponded September 8, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 8, 2014</t>
+  </si>
+  <si>
+    <t>All in all what we have come to expect at Sleep Inns. Nice friendly people seems to be their signature business model.  We have never been unhappy staying at Sleep Inns. The breakfast area was very clean and the food was fresh and tasty. The fruit was fresh, milk cold and coffee hot.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r210167889-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>210167889</t>
+  </si>
+  <si>
+    <t>06/13/2014</t>
+  </si>
+  <si>
+    <t>Great price for busy weekend!!</t>
+  </si>
+  <si>
+    <t>We came down from Arkansas for WrestleMania 30 weekend in New Orleans. All the hotels in New Orleans were all booked up. We made reservations online for the sleep Inn and luckily they had rooms open and for a really good price. We showed up around 2 am and the front desk clerk was smiling with a happy attitude, after a long drive this was a great face to see.  There were 4 of us and the room was just the right size. The room was very clean and housekeeping did a great job on cleaning each day. I would stay here again on my next trip to  New Orleans!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Terry F, General Manager at Sleep Inn, responded to this reviewResponded June 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 15, 2014</t>
+  </si>
+  <si>
+    <t>We came down from Arkansas for WrestleMania 30 weekend in New Orleans. All the hotels in New Orleans were all booked up. We made reservations online for the sleep Inn and luckily they had rooms open and for a really good price. We showed up around 2 am and the front desk clerk was smiling with a happy attitude, after a long drive this was a great face to see.  There were 4 of us and the room was just the right size. The room was very clean and housekeeping did a great job on cleaning each day. I would stay here again on my next trip to  New Orleans!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r208544225-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>208544225</t>
+  </si>
+  <si>
+    <t>06/02/2014</t>
+  </si>
+  <si>
+    <t>Good Value, clean but dated rooms</t>
+  </si>
+  <si>
+    <t>Was a good deal for a 1 night stay for an event in New Orleans that happen to coincide with Jazz Festival so all closer hotels were very expensive or full. Slightly dated bathrooms, otherwise a good deal for a hotel that appeared to be clean. Staff was friendly as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>Terry F, General Manager at Sleep Inn, responded to this reviewResponded June 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 4, 2014</t>
+  </si>
+  <si>
+    <t>Was a good deal for a 1 night stay for an event in New Orleans that happen to coincide with Jazz Festival so all closer hotels were very expensive or full. Slightly dated bathrooms, otherwise a good deal for a hotel that appeared to be clean. Staff was friendly as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r207167241-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>207167241</t>
+  </si>
+  <si>
+    <t>05/26/2014</t>
+  </si>
+  <si>
+    <t>Clean, Comfortable Sleep</t>
+  </si>
+  <si>
+    <t>Before I review, it is worth noting that I RARELY, book anything below a three star hotel.  I find it too scary based on the huge variance in quality in hotels with star levels lower than that.  I booked this based on customer reviews, price and the fact that we were really just needing to sleep for a night since we were just spending the evening in the area checking out the French Quarter and then heading on to Biloxi.
+The hotel was perfectly fine.  It was clean.  My husband and I both slept very well.  The bed was super comfortable (although I HATE the bedspreads and think it is an easy upgrade for any hotel to change to all white linens).  This was, however, the smallest hotel room we have stayed in (including our room a few years ago in New York City).  For a suburban hotel, that was a little shocking.  So small, in fact, that there is only a stand up shower in the bathroom.
+Overall, I have few complaints.  I slept well, my husband slept well.  It was clean and that was all we needed after an evening/night on Bourbon Street.  
+Breakfast was pretty non-existent except for self-made waffles.  With only one waffle machine and everyone eating them, it took some time.  There were eggs and sausage, but honestly they looked so gross, I did not even attempt them.
+Overall, I would recommend and I would...Before I review, it is worth noting that I RARELY, book anything below a three star hotel.  I find it too scary based on the huge variance in quality in hotels with star levels lower than that.  I booked this based on customer reviews, price and the fact that we were really just needing to sleep for a night since we were just spending the evening in the area checking out the French Quarter and then heading on to Biloxi.The hotel was perfectly fine.  It was clean.  My husband and I both slept very well.  The bed was super comfortable (although I HATE the bedspreads and think it is an easy upgrade for any hotel to change to all white linens).  This was, however, the smallest hotel room we have stayed in (including our room a few years ago in New York City).  For a suburban hotel, that was a little shocking.  So small, in fact, that there is only a stand up shower in the bathroom.Overall, I have few complaints.  I slept well, my husband slept well.  It was clean and that was all we needed after an evening/night on Bourbon Street.  Breakfast was pretty non-existent except for self-made waffles.  With only one waffle machine and everyone eating them, it took some time.  There were eggs and sausage, but honestly they looked so gross, I did not even attempt them.Overall, I would recommend and I would stay again!  Oh and the staff was excellent, super easy and quick check-in.  Overall a very good hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Terry F, General Manager at Sleep Inn, responded to this reviewResponded May 28, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 28, 2014</t>
+  </si>
+  <si>
+    <t>Before I review, it is worth noting that I RARELY, book anything below a three star hotel.  I find it too scary based on the huge variance in quality in hotels with star levels lower than that.  I booked this based on customer reviews, price and the fact that we were really just needing to sleep for a night since we were just spending the evening in the area checking out the French Quarter and then heading on to Biloxi.
+The hotel was perfectly fine.  It was clean.  My husband and I both slept very well.  The bed was super comfortable (although I HATE the bedspreads and think it is an easy upgrade for any hotel to change to all white linens).  This was, however, the smallest hotel room we have stayed in (including our room a few years ago in New York City).  For a suburban hotel, that was a little shocking.  So small, in fact, that there is only a stand up shower in the bathroom.
+Overall, I have few complaints.  I slept well, my husband slept well.  It was clean and that was all we needed after an evening/night on Bourbon Street.  
+Breakfast was pretty non-existent except for self-made waffles.  With only one waffle machine and everyone eating them, it took some time.  There were eggs and sausage, but honestly they looked so gross, I did not even attempt them.
+Overall, I would recommend and I would...Before I review, it is worth noting that I RARELY, book anything below a three star hotel.  I find it too scary based on the huge variance in quality in hotels with star levels lower than that.  I booked this based on customer reviews, price and the fact that we were really just needing to sleep for a night since we were just spending the evening in the area checking out the French Quarter and then heading on to Biloxi.The hotel was perfectly fine.  It was clean.  My husband and I both slept very well.  The bed was super comfortable (although I HATE the bedspreads and think it is an easy upgrade for any hotel to change to all white linens).  This was, however, the smallest hotel room we have stayed in (including our room a few years ago in New York City).  For a suburban hotel, that was a little shocking.  So small, in fact, that there is only a stand up shower in the bathroom.Overall, I have few complaints.  I slept well, my husband slept well.  It was clean and that was all we needed after an evening/night on Bourbon Street.  Breakfast was pretty non-existent except for self-made waffles.  With only one waffle machine and everyone eating them, it took some time.  There were eggs and sausage, but honestly they looked so gross, I did not even attempt them.Overall, I would recommend and I would stay again!  Oh and the staff was excellent, super easy and quick check-in.  Overall a very good hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r206266580-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>206266580</t>
+  </si>
+  <si>
+    <t>05/19/2014</t>
+  </si>
+  <si>
+    <t>Cheap price, cheap hotel.</t>
+  </si>
+  <si>
+    <t>Staff was very friendly. Rooms dated and not the cleanest.  Huge cob Web in bathroom.  Sink not clean.  Beds and sheets were good. Shower was big.  Not gross dirty. I just wiped the sink  and ignored the cob web.  Would not stay there again. MoreShow less</t>
+  </si>
+  <si>
+    <t>Terry F, General Manager at Sleep Inn, responded to this reviewResponded May 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 22, 2014</t>
+  </si>
+  <si>
+    <t>Staff was very friendly. Rooms dated and not the cleanest.  Huge cob Web in bathroom.  Sink not clean.  Beds and sheets were good. Shower was big.  Not gross dirty. I just wiped the sink  and ignored the cob web.  Would not stay there again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r203821160-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>203821160</t>
+  </si>
+  <si>
+    <t>05/03/2014</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>Terry F, General Manager at Sleep Inn, responded to this reviewResponded May 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 5, 2014</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r203496733-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>203496733</t>
+  </si>
+  <si>
+    <t>04/30/2014</t>
+  </si>
+  <si>
+    <t>Great Value, Convenient Location</t>
+  </si>
+  <si>
+    <t>We stayed here one night while in Violet, LA for a wedding anniversary. The room was cool and beds comfortable. Be aware, No TUB . . . Wife upset because she likes to have her tub time every morning. Good thing was that a storm blew in, we got up early, 4:30 AM and hit the road. Staff was polite and always attentive at the front desk.  Wi-fi worked OK, not great.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>Terry F, General Manager at Sleep Inn, responded to this reviewResponded May 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 1, 2014</t>
+  </si>
+  <si>
+    <t>We stayed here one night while in Violet, LA for a wedding anniversary. The room was cool and beds comfortable. Be aware, No TUB . . . Wife upset because she likes to have her tub time every morning. Good thing was that a storm blew in, we got up early, 4:30 AM and hit the road. Staff was polite and always attentive at the front desk.  Wi-fi worked OK, not great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r203216551-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>203216551</t>
+  </si>
+  <si>
+    <t>04/28/2014</t>
+  </si>
+  <si>
+    <t>Great Value for quality lodging</t>
+  </si>
+  <si>
+    <t>We needed one night of lodging before taking a morning flight the next day. I was unaware of Jazz Fest and the Golf Tourney being held in New Orleans, so I booked this hotel in Slidell - a 40 minute drive to the airport - the closest lodging that I could find. We were delighted with the clean and spacious room for the money. I am a Choice Hotel member, and we typically look for Comfort Suites when we travel, but after this stay, the Sleep Inn will be a great alternative. The front desk staff was friendly, efficient, and very helpful with dinner suggestions and directions. Our room was clean and the bathroom was spotless. I can only say 'well done' to the staff at this Sleep Inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>We needed one night of lodging before taking a morning flight the next day. I was unaware of Jazz Fest and the Golf Tourney being held in New Orleans, so I booked this hotel in Slidell - a 40 minute drive to the airport - the closest lodging that I could find. We were delighted with the clean and spacious room for the money. I am a Choice Hotel member, and we typically look for Comfort Suites when we travel, but after this stay, the Sleep Inn will be a great alternative. The front desk staff was friendly, efficient, and very helpful with dinner suggestions and directions. Our room was clean and the bathroom was spotless. I can only say 'well done' to the staff at this Sleep Inn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r200942763-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>200942763</t>
+  </si>
+  <si>
+    <t>04/13/2014</t>
+  </si>
+  <si>
+    <t>Clean. Quiet.</t>
+  </si>
+  <si>
+    <t>|We stayed here for one night before a cruise out of NOLA. I'd tried to book a hotel in NOLA but it seemed that most everything was booked for Wrestlemania. This hotel was clean and quiet, not located near the city part of Slidell, quick on/off of I-10. Best part was the price was right. A 30 minute ride into NOLA means we will probably stay there later on when we go to NOLA.MoreShow less</t>
+  </si>
+  <si>
+    <t>Terry F, General Manager at Sleep Inn, responded to this reviewResponded April 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 15, 2014</t>
+  </si>
+  <si>
+    <t>|We stayed here for one night before a cruise out of NOLA. I'd tried to book a hotel in NOLA but it seemed that most everything was booked for Wrestlemania. This hotel was clean and quiet, not located near the city part of Slidell, quick on/off of I-10. Best part was the price was right. A 30 minute ride into NOLA means we will probably stay there later on when we go to NOLA.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r200394652-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>200394652</t>
+  </si>
+  <si>
+    <t>04/08/2014</t>
+  </si>
+  <si>
+    <t>Our First Louisiana Experience</t>
+  </si>
+  <si>
+    <t>My son and I came to New Orleans for Wrestlemania XXX.  Due to the size of the event, affordable lodging was at a premium and I booked a room here online based upon reviews from this website.  
+At the time of booking, all that was available was a smoking king room.  I was not to hip on having a smoking room but figured we would not be spending much time here anyways so it shouldn't matter that much.  I called prior to booking online to check the availability of a non-smoking room and was told that there was nothing else available during my time-frame there.  I ultimately booked the smoking room as this was one of the less expensive hotels with proximity to New Orleans and due to the overall good reviews it received. 
+The staff impressed me before I ever arrived.  During the afternoon the day I left home, I received a telephone call from Micky, who knew I had been inquiring as to the availability of the non-smoking room.  She told me that they had a non-smoking room come available and wanted to know if I wished to change my reservation, which I did.  
+When we arrived to the hotel, which was conveniently located off of I-10, check in was a breeze and the young lady at the counter was polite and helpful.  The room itself was small and fairly simple but we did not require much.  Overall,...My son and I came to New Orleans for Wrestlemania XXX.  Due to the size of the event, affordable lodging was at a premium and I booked a room here online based upon reviews from this website.  At the time of booking, all that was available was a smoking king room.  I was not to hip on having a smoking room but figured we would not be spending much time here anyways so it shouldn't matter that much.  I called prior to booking online to check the availability of a non-smoking room and was told that there was nothing else available during my time-frame there.  I ultimately booked the smoking room as this was one of the less expensive hotels with proximity to New Orleans and due to the overall good reviews it received. The staff impressed me before I ever arrived.  During the afternoon the day I left home, I received a telephone call from Micky, who knew I had been inquiring as to the availability of the non-smoking room.  She told me that they had a non-smoking room come available and wanted to know if I wished to change my reservation, which I did.  When we arrived to the hotel, which was conveniently located off of I-10, check in was a breeze and the young lady at the counter was polite and helpful.  The room itself was small and fairly simple but we did not require much.  Overall, it was clean and felt safe.  The weather was less than perfect so my son and I decided we wanted to eat dinner and hang around the hotel.  Unfortunately, there were not a lot of dinner choices in the immediate vicinity and we had to drive a few miles down the interstate to find something but it was not too difficult.  When we came back, the nice flat screen in our room provided some decent television with all the right channels present.  Additionally, the WiFi in the hotel worked great and enabled us to use our gadgets to pass the time.   On our second night there, I went to the front desk of the hotel to make change to use the vending machines.  The gentleman working the front desk was very polite and told me they were having problems with the vending machines, so he provided me a nice little bag containing chips and bottled water.When we did venture into New Orleans, I found the hotel to be just about the right proximity from everything.  It was outside of the New Orleans city limits (a huge plus if you actually know anything about the city) but was only approximately 25-30 minutes from everywhere we needed to be or wanted to go i.e. The Superdome, The Smoothie King Center, Ernest P. Morial Convention Center, and the French Quarter.The downfalls we experienced occurred on our final day.  This was the only day we decided to partake in the breakfast the hotel offered.  There was selection but getting there towards the end meant the waffle batter was watered down and the other selections were slim pickings. Additionally, the gal running the area broke everything down prior to ten.  When we went back to the room prior to ten to gather our things and get ready for check out, which was listed as 11 am, housekeeping kept knocking and trying to service our room and I had to tell the housekeeper to give us a few minutes so we could get our belongings and check out.  She was a polite but I found it to be a bit pesky.  Upon checking out, we dealt with Micky, who again was very polite.  She learned that we were spending the day in New Orleans after checking out and welcomed us to call back and stay with them should we decide to spend another night.  She did forewarn us that rooms were slim pickings and to give them a call as soon as possible should we decide to stay.Overall, the hotel itself was average but the staff brightened everything to where I would consider it a very good place to stay.  I would definitely book here again should I return to the area with family.MoreShow less</t>
+  </si>
+  <si>
+    <t>Terry F, General Manager at Sleep Inn, responded to this reviewResponded April 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 11, 2014</t>
+  </si>
+  <si>
+    <t>My son and I came to New Orleans for Wrestlemania XXX.  Due to the size of the event, affordable lodging was at a premium and I booked a room here online based upon reviews from this website.  
+At the time of booking, all that was available was a smoking king room.  I was not to hip on having a smoking room but figured we would not be spending much time here anyways so it shouldn't matter that much.  I called prior to booking online to check the availability of a non-smoking room and was told that there was nothing else available during my time-frame there.  I ultimately booked the smoking room as this was one of the less expensive hotels with proximity to New Orleans and due to the overall good reviews it received. 
+The staff impressed me before I ever arrived.  During the afternoon the day I left home, I received a telephone call from Micky, who knew I had been inquiring as to the availability of the non-smoking room.  She told me that they had a non-smoking room come available and wanted to know if I wished to change my reservation, which I did.  
+When we arrived to the hotel, which was conveniently located off of I-10, check in was a breeze and the young lady at the counter was polite and helpful.  The room itself was small and fairly simple but we did not require much.  Overall,...My son and I came to New Orleans for Wrestlemania XXX.  Due to the size of the event, affordable lodging was at a premium and I booked a room here online based upon reviews from this website.  At the time of booking, all that was available was a smoking king room.  I was not to hip on having a smoking room but figured we would not be spending much time here anyways so it shouldn't matter that much.  I called prior to booking online to check the availability of a non-smoking room and was told that there was nothing else available during my time-frame there.  I ultimately booked the smoking room as this was one of the less expensive hotels with proximity to New Orleans and due to the overall good reviews it received. The staff impressed me before I ever arrived.  During the afternoon the day I left home, I received a telephone call from Micky, who knew I had been inquiring as to the availability of the non-smoking room.  She told me that they had a non-smoking room come available and wanted to know if I wished to change my reservation, which I did.  When we arrived to the hotel, which was conveniently located off of I-10, check in was a breeze and the young lady at the counter was polite and helpful.  The room itself was small and fairly simple but we did not require much.  Overall, it was clean and felt safe.  The weather was less than perfect so my son and I decided we wanted to eat dinner and hang around the hotel.  Unfortunately, there were not a lot of dinner choices in the immediate vicinity and we had to drive a few miles down the interstate to find something but it was not too difficult.  When we came back, the nice flat screen in our room provided some decent television with all the right channels present.  Additionally, the WiFi in the hotel worked great and enabled us to use our gadgets to pass the time.   On our second night there, I went to the front desk of the hotel to make change to use the vending machines.  The gentleman working the front desk was very polite and told me they were having problems with the vending machines, so he provided me a nice little bag containing chips and bottled water.When we did venture into New Orleans, I found the hotel to be just about the right proximity from everything.  It was outside of the New Orleans city limits (a huge plus if you actually know anything about the city) but was only approximately 25-30 minutes from everywhere we needed to be or wanted to go i.e. The Superdome, The Smoothie King Center, Ernest P. Morial Convention Center, and the French Quarter.The downfalls we experienced occurred on our final day.  This was the only day we decided to partake in the breakfast the hotel offered.  There was selection but getting there towards the end meant the waffle batter was watered down and the other selections were slim pickings. Additionally, the gal running the area broke everything down prior to ten.  When we went back to the room prior to ten to gather our things and get ready for check out, which was listed as 11 am, housekeeping kept knocking and trying to service our room and I had to tell the housekeeper to give us a few minutes so we could get our belongings and check out.  She was a polite but I found it to be a bit pesky.  Upon checking out, we dealt with Micky, who again was very polite.  She learned that we were spending the day in New Orleans after checking out and welcomed us to call back and stay with them should we decide to spend another night.  She did forewarn us that rooms were slim pickings and to give them a call as soon as possible should we decide to stay.Overall, the hotel itself was average but the staff brightened everything to where I would consider it a very good place to stay.  I would definitely book here again should I return to the area with family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r199363139-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>199363139</t>
+  </si>
+  <si>
+    <t>03/31/2014</t>
+  </si>
+  <si>
+    <t>Suprise baby shower</t>
+  </si>
+  <si>
+    <t>The price through here was great and my room was clean and freshed everyday with towels and all but I would of like grits for breakfast though and the one maid erica Thompson took really good care of us while we stayedMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Terry F, General Manager at Sleep Inn, responded to this reviewResponded April 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2014</t>
+  </si>
+  <si>
+    <t>The price through here was great and my room was clean and freshed everyday with towels and all but I would of like grits for breakfast though and the one maid erica Thompson took really good care of us while we stayedMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r196037254-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>196037254</t>
+  </si>
+  <si>
+    <t>03/03/2014</t>
+  </si>
+  <si>
+    <t>One Night in February</t>
+  </si>
+  <si>
+    <t>We stayed the night before our cruise. Micky, at the desk was very friendly. Other staff were very nice.  Room was clean and the bed was so comfortable. The shower was great with plenty of hot water. We ate lunch at a wonderful Mexican Restaurant Micky reccommended. Rode into NO for an afternoon at Mardi Gras. Then got a late night snack at Waffel House just across the road. The Sleep Inn is just off the interstate and about 30 minutes from the Cruise Port. The price is nice, compared to what you pay in New Orleans, AND an enjoyable breakfast is included.  We will deffinately stay again next trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>Terry F, General Manager at Sleep Inn, responded to this reviewResponded March 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 5, 2014</t>
+  </si>
+  <si>
+    <t>We stayed the night before our cruise. Micky, at the desk was very friendly. Other staff were very nice.  Room was clean and the bed was so comfortable. The shower was great with plenty of hot water. We ate lunch at a wonderful Mexican Restaurant Micky reccommended. Rode into NO for an afternoon at Mardi Gras. Then got a late night snack at Waffel House just across the road. The Sleep Inn is just off the interstate and about 30 minutes from the Cruise Port. The price is nice, compared to what you pay in New Orleans, AND an enjoyable breakfast is included.  We will deffinately stay again next trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r182952845-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>182952845</t>
+  </si>
+  <si>
+    <t>10/30/2013</t>
+  </si>
+  <si>
+    <t>Highly recommend!!</t>
+  </si>
+  <si>
+    <t>We were traveling to New Orleans for a cruise, but having lived in the city before, and not wanting to pay through the nose for a hotel room no better than others, and have to deal with the city in general, I made an online reservation with Sleep Inn.  The price was right, the location was excellent, and we found the property itself to be exceptionally clean and well taken care of.  The hotel is located far enough off the interstate so that there's no traffic noise. There is a Waffle House located directly across the street, and the hotel serves a variety of breakfast foods - enough to satisfy all but the really picky!  The room was very clean, the beds were comfortable, and the staff were friendly, helpful, and accommodating. Had we arrived back from the cruise in the late afternoon, we would have stayed there again; and on our next cruise out of New Orleans, they can expect us to stay there!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Terry F, General Manager at Sleep Inn, responded to this reviewResponded October 31, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 31, 2013</t>
+  </si>
+  <si>
+    <t>We were traveling to New Orleans for a cruise, but having lived in the city before, and not wanting to pay through the nose for a hotel room no better than others, and have to deal with the city in general, I made an online reservation with Sleep Inn.  The price was right, the location was excellent, and we found the property itself to be exceptionally clean and well taken care of.  The hotel is located far enough off the interstate so that there's no traffic noise. There is a Waffle House located directly across the street, and the hotel serves a variety of breakfast foods - enough to satisfy all but the really picky!  The room was very clean, the beds were comfortable, and the staff were friendly, helpful, and accommodating. Had we arrived back from the cruise in the late afternoon, we would have stayed there again; and on our next cruise out of New Orleans, they can expect us to stay there!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r175349775-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>175349775</t>
+  </si>
+  <si>
+    <t>09/02/2013</t>
+  </si>
+  <si>
+    <t>over night stay</t>
+  </si>
+  <si>
+    <t>We were traveling home from our vacation in florda and had some good experiences with sleep inn at an earlier stop so we decided to stay at this hotel on our way home. It was a bit off the interstate but was well worth the 5 minute drive. It was in a quiet location, very clean with a friendly staff.  We were given a room right by the pool but as the rules stated everyone was cleared out of the pool area by 10 pm, so there was no noise to disturb us.The room was very clean, everything was great and even though we didnt need it or use it there was even a printer in the room.  My only complaint would be that the choices on the breakfast were limited and they ran out of things quickly and items werent replaced real quickly but everything was of good quality.I would recommend this hotel for either an overnight or extended stay, it was a good experience on all levels.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Terry F, General Manager at Sleep Inn, responded to this reviewResponded September 4, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 4, 2013</t>
+  </si>
+  <si>
+    <t>We were traveling home from our vacation in florda and had some good experiences with sleep inn at an earlier stop so we decided to stay at this hotel on our way home. It was a bit off the interstate but was well worth the 5 minute drive. It was in a quiet location, very clean with a friendly staff.  We were given a room right by the pool but as the rules stated everyone was cleared out of the pool area by 10 pm, so there was no noise to disturb us.The room was very clean, everything was great and even though we didnt need it or use it there was even a printer in the room.  My only complaint would be that the choices on the breakfast were limited and they ran out of things quickly and items werent replaced real quickly but everything was of good quality.I would recommend this hotel for either an overnight or extended stay, it was a good experience on all levels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r169928630-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>169928630</t>
+  </si>
+  <si>
+    <t>07/30/2013</t>
+  </si>
+  <si>
+    <t>Clean, friendly, and helpful and at a great price!</t>
+  </si>
+  <si>
+    <t>We stayed here as we were relocating to the area. We hit a lot of glitches with the move but this hotel was always a relief to come back to every day. It was clean, breakfast was always well stocked, but most importantly the staff, especially the manager, Terry, were always professional and friendly. They treaties us like family. I would recommend this hotel to everyone!MoreShow less</t>
+  </si>
+  <si>
+    <t>Terry F, General Manager at Sleep Inn, responded to this reviewResponded November 1, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 1, 2013</t>
+  </si>
+  <si>
+    <t>We stayed here as we were relocating to the area. We hit a lot of glitches with the move but this hotel was always a relief to come back to every day. It was clean, breakfast was always well stocked, but most importantly the staff, especially the manager, Terry, were always professional and friendly. They treaties us like family. I would recommend this hotel to everyone!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r168170465-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>168170465</t>
+  </si>
+  <si>
+    <t>07/19/2013</t>
+  </si>
+  <si>
+    <t>Breakfast Cut Short - Out of Food</t>
+  </si>
+  <si>
+    <t>I haven't stayed at a Sleep Inn in several years, but I think this hotel may be better than the average Sleep Inn when considering the facility itself. It seems to be well maintained and relatively clean. We stayed on a Saturday night. Check-in was fine. The clerk was friendly and professional. However, I was disappointed when my family came down for breakfast on Sunday morning, about 30 minutes before the buffet was supposed to close. There wasn't much left...really sparse. When I asked the attendant if she was going to restock, she told me they were out of food.  She advised me that there was a Waffle House across the street. Of course the hotel wasn't buying breakfast at the Waffle House, not that I would expect them to. However, I do expect them to offer the breakfast options they advertise.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>I haven't stayed at a Sleep Inn in several years, but I think this hotel may be better than the average Sleep Inn when considering the facility itself. It seems to be well maintained and relatively clean. We stayed on a Saturday night. Check-in was fine. The clerk was friendly and professional. However, I was disappointed when my family came down for breakfast on Sunday morning, about 30 minutes before the buffet was supposed to close. There wasn't much left...really sparse. When I asked the attendant if she was going to restock, she told me they were out of food.  She advised me that there was a Waffle House across the street. Of course the hotel wasn't buying breakfast at the Waffle House, not that I would expect them to. However, I do expect them to offer the breakfast options they advertise.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r163884118-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>163884118</t>
+  </si>
+  <si>
+    <t>06/13/2013</t>
+  </si>
+  <si>
+    <t>Excellent Curteous and Helpful Service.</t>
+  </si>
+  <si>
+    <t>While traveling from Tallahassee, FL to San Antonio, TX, my car broke down at about 10 pm, just after leaving the Louisiana Welcome Center/Rest Area on I-10 near Slidell, LA. I had my car towed to a nearby dealership where I left it for repairs the next day. The tow truck driver was kind enough to take me to a nearby Sleep Inn Hotel. It took two days for repairs to be completed on my car. The staff at Sleep Inn was curteous and extremely helpful in helping me with accomodations and particularly with helping me check on my car. I was provided with the use of a cell phone charger over night (mine was left in my car) and I was given a ride to the dealership to pick my charger the next morning. It took two days to complete repairs on my car. During the wait I was able to get much needed rest and when I checked out of Sleep Inn I was completely refreshed. When I checked out, I left two bags at the hotel. General Manager Terry Frazier called me on my cell phone to remind me before I had gone only a few blocks from the hotel. Ms. Frazier's prompt action saved me time and expense. I whole heartedly recommend the Sleep Inn in Slidell, LA.MoreShow less</t>
+  </si>
+  <si>
+    <t>While traveling from Tallahassee, FL to San Antonio, TX, my car broke down at about 10 pm, just after leaving the Louisiana Welcome Center/Rest Area on I-10 near Slidell, LA. I had my car towed to a nearby dealership where I left it for repairs the next day. The tow truck driver was kind enough to take me to a nearby Sleep Inn Hotel. It took two days for repairs to be completed on my car. The staff at Sleep Inn was curteous and extremely helpful in helping me with accomodations and particularly with helping me check on my car. I was provided with the use of a cell phone charger over night (mine was left in my car) and I was given a ride to the dealership to pick my charger the next morning. It took two days to complete repairs on my car. During the wait I was able to get much needed rest and when I checked out of Sleep Inn I was completely refreshed. When I checked out, I left two bags at the hotel. General Manager Terry Frazier called me on my cell phone to remind me before I had gone only a few blocks from the hotel. Ms. Frazier's prompt action saved me time and expense. I whole heartedly recommend the Sleep Inn in Slidell, LA.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r162683554-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>162683554</t>
+  </si>
+  <si>
+    <t>06/01/2013</t>
+  </si>
+  <si>
+    <t>Clean, friendly at a great price</t>
+  </si>
+  <si>
+    <t>Checked in a little early with no problems.  Room was clean, beds very comfortable, and the staff was very helpful.  We had minimum requirements but this establishment would meet the the needs of a most demanding guest.  Highly recommend.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r160620212-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>160620212</t>
+  </si>
+  <si>
+    <t>05/13/2013</t>
+  </si>
+  <si>
+    <t>Great place, great price</t>
+  </si>
+  <si>
+    <t>Stayed here with friends when passing through on the way to Atlanta. Very good price. The room was clean and had a very nice decor. I loved the colors. Room was small but met our needs.  Very comfortable bed and pillows. Good breakfast. The lady who checked us in...Cherie?...was super friendly and helpful. Directed us to a close by restaurant which was excellent and exactly what we were looking for. would definitely stay there again</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r159966400-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>159966400</t>
+  </si>
+  <si>
+    <t>05/07/2013</t>
+  </si>
+  <si>
+    <t>Decent rates and beds</t>
+  </si>
+  <si>
+    <t>I've stayed here a few times, this hotel was hit hard by hurricane Katrina a few years ago but they've done a good job of bringing it back up, they're currently in the middle of renovations putting new paint on the walls and upgrading the TVs to newer flat panel models. The upgrades are nice but to me don't go quite as far as I think they should. For some reason they've decided to remove the mini-fridges from the non-king rooms which is annoying and the mattresses could definitely use a refresh, they weren't horrible but they weren't really good either. Average.The breakfast is provided was hot, though it was lacking eggs the morning I chose to avail myself of it due to a missing shipment. The hotel Wifi was decent but the hotel itself lacks an office space for business travelers, a workout space, and a pool. This hotel really is just a place to lay your head at night. That said it's well positioned if you want to be close enough to New Orleans to enjoy that city's charms without paying the overly expensive hotel bills you'll pay on the south side of the IH-10 bridge over the Ponchatrain...MoreShow less</t>
+  </si>
+  <si>
+    <t>I've stayed here a few times, this hotel was hit hard by hurricane Katrina a few years ago but they've done a good job of bringing it back up, they're currently in the middle of renovations putting new paint on the walls and upgrading the TVs to newer flat panel models. The upgrades are nice but to me don't go quite as far as I think they should. For some reason they've decided to remove the mini-fridges from the non-king rooms which is annoying and the mattresses could definitely use a refresh, they weren't horrible but they weren't really good either. Average.The breakfast is provided was hot, though it was lacking eggs the morning I chose to avail myself of it due to a missing shipment. The hotel Wifi was decent but the hotel itself lacks an office space for business travelers, a workout space, and a pool. This hotel really is just a place to lay your head at night. That said it's well positioned if you want to be close enough to New Orleans to enjoy that city's charms without paying the overly expensive hotel bills you'll pay on the south side of the IH-10 bridge over the Ponchatrain...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r157937138-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>157937138</t>
+  </si>
+  <si>
+    <t>04/16/2013</t>
+  </si>
+  <si>
+    <t>last resort hotel</t>
+  </si>
+  <si>
+    <t>Booked this hotel when everything under $150/nt in the greater NOLA area was full.  Arrived to find hotel staff had skeleton crew, messed up several customers reservations.  Room said non-smoking, due to asthma and allergies, but when we got into the room, stale cigarette smoke wafted out like a ton of bricks from room 217.  Called down to front desk but no answer.  Went down there and waited in line behind 4 irate customers (whose reservations were messed up) for 45 minutes, only to be told there was no other room available, that it wasn't the front desk's fault but that housekeeping didn't report the issue and they had no other solution for me.  No remorse, sympathy or concern.  Due to a miracle, I booked a last minute hotel somewhere else b/c they had a last minute cancellation.  5 days later, and I'm still waiting on the $191 to stop pending from my bank account from Sleep Inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>Booked this hotel when everything under $150/nt in the greater NOLA area was full.  Arrived to find hotel staff had skeleton crew, messed up several customers reservations.  Room said non-smoking, due to asthma and allergies, but when we got into the room, stale cigarette smoke wafted out like a ton of bricks from room 217.  Called down to front desk but no answer.  Went down there and waited in line behind 4 irate customers (whose reservations were messed up) for 45 minutes, only to be told there was no other room available, that it wasn't the front desk's fault but that housekeeping didn't report the issue and they had no other solution for me.  No remorse, sympathy or concern.  Due to a miracle, I booked a last minute hotel somewhere else b/c they had a last minute cancellation.  5 days later, and I'm still waiting on the $191 to stop pending from my bank account from Sleep Inn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r156201957-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>156201957</t>
+  </si>
+  <si>
+    <t>03/31/2013</t>
+  </si>
+  <si>
+    <t>Used to be nice</t>
+  </si>
+  <si>
+    <t>My brother lives in the subdivision about a mile from this hotel.  Several years ago we stayed there and enjoyed it as it was clean, quiet and a comfortable bed.  All I was looking for.  On this trip for my nieces wedding, we were staying there in the suite.  The a/c in the bedroom was noisy to the point it would awaken us all night.  The previously comfortable bed was worn and needed replacement.  The mirror in the bathroom sink area was dirty and the smell of cigarette smoke was nauseating.  Even in the room where more than 1/2 the floor was non-smoking.  We asked the a/c to be fixed after the first night, but it was 'ok by maintenance'.  I guess they were not sleeping in the room.  We left after two of the three nights and went to the city of NO more than 20 miles further away, but got a great nights sleep.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>My brother lives in the subdivision about a mile from this hotel.  Several years ago we stayed there and enjoyed it as it was clean, quiet and a comfortable bed.  All I was looking for.  On this trip for my nieces wedding, we were staying there in the suite.  The a/c in the bedroom was noisy to the point it would awaken us all night.  The previously comfortable bed was worn and needed replacement.  The mirror in the bathroom sink area was dirty and the smell of cigarette smoke was nauseating.  Even in the room where more than 1/2 the floor was non-smoking.  We asked the a/c to be fixed after the first night, but it was 'ok by maintenance'.  I guess they were not sleeping in the room.  We left after two of the three nights and went to the city of NO more than 20 miles further away, but got a great nights sleep.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r151447571-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>151447571</t>
+  </si>
+  <si>
+    <t>02/05/2013</t>
+  </si>
+  <si>
+    <t>Comfortable and Great Location</t>
+  </si>
+  <si>
+    <t>Having driven from Orlando to New Orleans we wanted somewhere reasonable to stay over just outside the city, this place was ideal. The receptionist made it clear that renovations were taking place on the third floor before checking in but to be honest we didn't hear anything. Although just off a busy road we didn't hear any traffic noise. The rooms were comfortable and had everything a traveller might need. Contiental breakfast was included and there was plenty to choose from. Overall a good experience for about £50 for a double room. The info also said there was a pool but we didn't explore this.</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r143601638-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>143601638</t>
+  </si>
+  <si>
+    <t>10/24/2012</t>
+  </si>
+  <si>
+    <t>Comfortable and friendly</t>
+  </si>
+  <si>
+    <t>After staying in a fairly rundown La Quinta in Hattiesburg, this was a nice surprise.  The room was clean and we were able to park right near our door.  One person I was traveling with had trouble catching her finger on the bathroom pocket door, but she was the only one.  I liked that the sink was outside the toilet area because it allowed more than one person to get ready at a time.  The shower had good water pressure and I liked that it was a walk-in shower rather than a tub.  The staff was very nice and let us sit in the breakfast area that night to visit with family from out of state.  We did not eat breakfast there (though it looks like they offered egg squares, fruit cups - which is nice - yogurt, and waffles) partially because the area is tiny.  We had a double room - it was quiet and the bed was very soft.  The sheets were not too thin, the a/c wasn't too loud, and we were able to have a good night's sleep.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>After staying in a fairly rundown La Quinta in Hattiesburg, this was a nice surprise.  The room was clean and we were able to park right near our door.  One person I was traveling with had trouble catching her finger on the bathroom pocket door, but she was the only one.  I liked that the sink was outside the toilet area because it allowed more than one person to get ready at a time.  The shower had good water pressure and I liked that it was a walk-in shower rather than a tub.  The staff was very nice and let us sit in the breakfast area that night to visit with family from out of state.  We did not eat breakfast there (though it looks like they offered egg squares, fruit cups - which is nice - yogurt, and waffles) partially because the area is tiny.  We had a double room - it was quiet and the bed was very soft.  The sheets were not too thin, the a/c wasn't too loud, and we were able to have a good night's sleep.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r140797509-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>140797509</t>
+  </si>
+  <si>
+    <t>09/20/2012</t>
+  </si>
+  <si>
+    <t>Good Place To Stop Outside of New Orleans</t>
+  </si>
+  <si>
+    <t>We stopped at the Sleep Inn to rest a few hours before visiting New Orleans.  We didn’t feel safe staying in the city, so we chose this hotel as it’s only about 20 minutes from the New Orleans action.  We didn’t check in until 6am, but the desk clerk was friendly and gave us a late checkout so that we could rest a few hours.  The area seemed okay.  Checkin was quick and we were in our room fast.  We had a king bed room.  It was nothing fancy but worked just fine to sleep a little while.  The bed slept well and served its purpose.  The shower worked fine but the water did feel a bit “slimly” which seems to be typical of areas near the ocean. Since we didn’t stay that long we didn’t really have time to checkout anything else at the hotel.  I think they had breakfast but no sure how that was since we were sleep.  It worked out well for us to sleep for a few hours.  The room was clean enough and offered us some much needed rest.  Checkout was quick and we were on our way to New Orleans in the afternoon.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>We stopped at the Sleep Inn to rest a few hours before visiting New Orleans.  We didn’t feel safe staying in the city, so we chose this hotel as it’s only about 20 minutes from the New Orleans action.  We didn’t check in until 6am, but the desk clerk was friendly and gave us a late checkout so that we could rest a few hours.  The area seemed okay.  Checkin was quick and we were in our room fast.  We had a king bed room.  It was nothing fancy but worked just fine to sleep a little while.  The bed slept well and served its purpose.  The shower worked fine but the water did feel a bit “slimly” which seems to be typical of areas near the ocean. Since we didn’t stay that long we didn’t really have time to checkout anything else at the hotel.  I think they had breakfast but no sure how that was since we were sleep.  It worked out well for us to sleep for a few hours.  The room was clean enough and offered us some much needed rest.  Checkout was quick and we were on our way to New Orleans in the afternoon.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r139513379-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>139513379</t>
+  </si>
+  <si>
+    <t>09/05/2012</t>
+  </si>
+  <si>
+    <t>Dry and available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Was originally booked somewhere else but first responders got priority. This place had room and the rate was the same. The front desk was pleasant but no real on the spot support for morning breakfast service. The room was clean but everything is showing its age. The shower (no tub in my room) was starting to lose its finish so it looked dirty. Mattress was losing its spring and needed to be replaced. Overall it was ok for a night but a bit worn for the price. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r133454595-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>133454595</t>
+  </si>
+  <si>
+    <t>07/04/2012</t>
+  </si>
+  <si>
+    <t>Cookies as you walk in!</t>
+  </si>
+  <si>
+    <t>Stayed here after a nice in New Orleans. It was a nice hotel, our of the traffic and right off of I-10 which made it easy to get back on the road the next morning. We walked over to the Waffle House for dinner, which was very nice as well. Used the pool to wind down and it was clean. Room was comfy. Would rec to others.</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r130890129-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>130890129</t>
+  </si>
+  <si>
+    <t>05/29/2012</t>
+  </si>
+  <si>
+    <t>It's an okay place to stay if you're just passing through.</t>
+  </si>
+  <si>
+    <t>It was an average place to stay.  There were some scratches and paint chips that were large enough that they should have been fixed.  There is very little to do in the area other than a Waffle House practically in the parking lot.  I was disappointed that the hotel staff let a pool party with loud music continue on at almost 9pm at night.  I really don't see how that's acceptable.  It had a mini fridge but no microwave.  I would consider staying again as a place if I'm passing through, but don't stay thinking there's lots do to near the hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r124181890-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>124181890</t>
+  </si>
+  <si>
+    <t>02/05/2012</t>
+  </si>
+  <si>
+    <t>44.00 a night.. thats about what it was worth</t>
+  </si>
+  <si>
+    <t>i needed a room fast.. and 44.00 was a great price. it is easy to access off the interstate. .and convenient.. i didnt expect royal treatment for 44.00 a night. i just expected a clean bed and shower.. 
+i get there and the lobby is a mess.. the little dining area had trash all over the place. people left their food on the tables. all the counters were covered with used up creamers for coffee and sugar packets. the desk attendants were nice and quick. i got my keys and went up to the room. i walk out of the elevator in a VERY dark hallway.. that smells like smoke.. as i walk to my room what started off smelling like cigerettes changes to the smell of someone smoking pott. 
+by this point.. i'm really dreading what the room is going to look like.. i put in the key and open the door.. at first glance the rooms are suprisingly clean and nice compared to the lobby and hall way.. nice pictures and LCD tv..  i bring in my luggage and notice a big wetspot near the airconditioner and a huge red stain on floor.. again.. the stain not a big deal.. but this wet spot from the airconditioner leaking has been there a while.. its not something new.. 
+the toilet and shower are clean in the bathroom.. the walls are not.. this is new orleans.. and it is mardi...i needed a room fast.. and 44.00 was a great price. it is easy to access off the interstate. .and convenient.. i didnt expect royal treatment for 44.00 a night. i just expected a clean bed and shower.. i get there and the lobby is a mess.. the little dining area had trash all over the place. people left their food on the tables. all the counters were covered with used up creamers for coffee and sugar packets. the desk attendants were nice and quick. i got my keys and went up to the room. i walk out of the elevator in a VERY dark hallway.. that smells like smoke.. as i walk to my room what started off smelling like cigerettes changes to the smell of someone smoking pott. by this point.. i'm really dreading what the room is going to look like.. i put in the key and open the door.. at first glance the rooms are suprisingly clean and nice compared to the lobby and hall way.. nice pictures and LCD tv..  i bring in my luggage and notice a big wetspot near the airconditioner and a huge red stain on floor.. again.. the stain not a big deal.. but this wet spot from the airconditioner leaking has been there a while.. its not something new.. the toilet and shower are clean in the bathroom.. the walls are not.. this is new orleans.. and it is mardi gras time of year.. so i'm sure there have been some drunken guests.. but there are stains all over the back wall around the toilet and the tile on the floor around the toilet.. from where people have missed what they were aiming for.. easily cleaned.. but it wasnt done.. room 404.. feb 2011.. for 44.00 a night.. it was okay.. i cant expect much.. but a clean bathroom without wet carpet would have been nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>i needed a room fast.. and 44.00 was a great price. it is easy to access off the interstate. .and convenient.. i didnt expect royal treatment for 44.00 a night. i just expected a clean bed and shower.. 
+i get there and the lobby is a mess.. the little dining area had trash all over the place. people left their food on the tables. all the counters were covered with used up creamers for coffee and sugar packets. the desk attendants were nice and quick. i got my keys and went up to the room. i walk out of the elevator in a VERY dark hallway.. that smells like smoke.. as i walk to my room what started off smelling like cigerettes changes to the smell of someone smoking pott. 
+by this point.. i'm really dreading what the room is going to look like.. i put in the key and open the door.. at first glance the rooms are suprisingly clean and nice compared to the lobby and hall way.. nice pictures and LCD tv..  i bring in my luggage and notice a big wetspot near the airconditioner and a huge red stain on floor.. again.. the stain not a big deal.. but this wet spot from the airconditioner leaking has been there a while.. its not something new.. 
+the toilet and shower are clean in the bathroom.. the walls are not.. this is new orleans.. and it is mardi...i needed a room fast.. and 44.00 was a great price. it is easy to access off the interstate. .and convenient.. i didnt expect royal treatment for 44.00 a night. i just expected a clean bed and shower.. i get there and the lobby is a mess.. the little dining area had trash all over the place. people left their food on the tables. all the counters were covered with used up creamers for coffee and sugar packets. the desk attendants were nice and quick. i got my keys and went up to the room. i walk out of the elevator in a VERY dark hallway.. that smells like smoke.. as i walk to my room what started off smelling like cigerettes changes to the smell of someone smoking pott. by this point.. i'm really dreading what the room is going to look like.. i put in the key and open the door.. at first glance the rooms are suprisingly clean and nice compared to the lobby and hall way.. nice pictures and LCD tv..  i bring in my luggage and notice a big wetspot near the airconditioner and a huge red stain on floor.. again.. the stain not a big deal.. but this wet spot from the airconditioner leaking has been there a while.. its not something new.. the toilet and shower are clean in the bathroom.. the walls are not.. this is new orleans.. and it is mardi gras time of year.. so i'm sure there have been some drunken guests.. but there are stains all over the back wall around the toilet and the tile on the floor around the toilet.. from where people have missed what they were aiming for.. easily cleaned.. but it wasnt done.. room 404.. feb 2011.. for 44.00 a night.. it was okay.. i cant expect much.. but a clean bathroom without wet carpet would have been nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r124057611-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>124057611</t>
+  </si>
+  <si>
+    <t>02/03/2012</t>
+  </si>
+  <si>
+    <t>The manager, Terry, goes out of her way to accomodate the needs of a guest</t>
+  </si>
+  <si>
+    <t>Several times, I have been so pleased by the kindness of the manager at this hotel.The hotel is clean and the location is lovely.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r123576536-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>123576536</t>
+  </si>
+  <si>
+    <t>01/24/2012</t>
+  </si>
+  <si>
+    <t>Typical Sleep Inn</t>
+  </si>
+  <si>
+    <t>No complaints. This was a typical Sleep Inn- room on the small side and weird bathroom with pocket door and sink outside the bathroom. The room had what is needed to but no extras. Basic cold breakfast selections. It was in a quiet area, which would be great for getting a good nights sleep except the mattress was not comfortable. The room was clean and in pretty good condition.The room didn't have a fridge as promised but the desk clerk brought one up right away.Both the night clerk and the day manager smoke directly outside the entrance. Guests shouldn't have to dodge cigarette smoke, especially from employees. UGH!!!There is nowhere nearby to eat except a Waffle House &amp; some fat food restaurant. I was hoping for somewhere nicer to have dinner but at least Waffle House is good and cheap.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>No complaints. This was a typical Sleep Inn- room on the small side and weird bathroom with pocket door and sink outside the bathroom. The room had what is needed to but no extras. Basic cold breakfast selections. It was in a quiet area, which would be great for getting a good nights sleep except the mattress was not comfortable. The room was clean and in pretty good condition.The room didn't have a fridge as promised but the desk clerk brought one up right away.Both the night clerk and the day manager smoke directly outside the entrance. Guests shouldn't have to dodge cigarette smoke, especially from employees. UGH!!!There is nowhere nearby to eat except a Waffle House &amp; some fat food restaurant. I was hoping for somewhere nicer to have dinner but at least Waffle House is good and cheap.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r122712321-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>122712321</t>
+  </si>
+  <si>
+    <t>01/07/2012</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>2nd time to stay at this hotel.  Easy access off of I-20.  Quiet, easy access parking lot.  Great friendly staff.  Rooms are updated and comfortable.  Flat screen tv.  fridge/microwave.  Clean.  Close to some restaurants.  Cracker Barrel and a Mexican restaurant are within walking distance, as is Walmart.  Easy access to Walmart gas station on your way out.  Nice breakfast in the morning.  Make sure to look "around the corner", for some reason all of the hot items are in a separate room- eggs, bacon, sausage, biquits and gravy, waffles. Overall a great overnight stay and great price.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r121767363-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>121767363</t>
+  </si>
+  <si>
+    <t>12/15/2011</t>
+  </si>
+  <si>
+    <t>Excellent location</t>
+  </si>
+  <si>
+    <t>Perfect location Just outside of busy new orleans upscale neighborhood. nice and quiet the grounds and swimming pool are very well kept. the staff was great! convenience store with gas across the street. and a restaurant next door. the lobby has a big screen tv and a computer for guest.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r119554211-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>119554211</t>
+  </si>
+  <si>
+    <t>10/21/2011</t>
+  </si>
+  <si>
+    <t>good location to visit New Orleans</t>
+  </si>
+  <si>
+    <t>It was clean, quiet, and comfortable but the room was small for 4 adults. The breakfast didn't have much of a variety.</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r117952533-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>117952533</t>
+  </si>
+  <si>
+    <t>09/11/2011</t>
+  </si>
+  <si>
+    <t>feeling safe</t>
+  </si>
+  <si>
+    <t>I found the SLEEP  INN of Westel Chapel  Fla.  to be clean, helpful, and best of all safe</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r69813963-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>69813963</t>
+  </si>
+  <si>
+    <t>07/05/2010</t>
+  </si>
+  <si>
+    <t>repeat customer- but disappointed this time</t>
+  </si>
+  <si>
+    <t>stayed here in january- solo- all great---this time w/ wife----they REFUSED my AARP CARD(told their occupancy rate was so good they didn't offer discounts) and there was a dirty,wet Towel wadded up behind the bathroom door......FYI.... i'LL TRY THEM ONE MORE TIME - THEIR LAST CHANCE....it was disappointing to be a Repeat CUSTOMER and bragged to the wife how nice my previous stay was and then this....Go Figure</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r55350573-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>55350573</t>
+  </si>
+  <si>
+    <t>02/06/2010</t>
+  </si>
+  <si>
+    <t>Nice Surprise</t>
+  </si>
+  <si>
+    <t>I travel and stay in hotel way too much.... I normally plan where I stay but ............Anyway I like flat screens nice comfy bed bla bla bla. I needed fuel and got off I-10 before the bridge(last chance) I saw the SleepInn drove over to see what was in area. I spoke with the person at the desk. ask about Flat Screen Beds Hot Breakfast..SI @this time does not have these lux. She called some other hotels in area  She was so nice in trying to find what i wanted. I stayed there. GLAD I DID. very nice ,clean new paint pillows TV had a great Picture good breakfast.I stayed two nights,I staying there next week for two nights again. For the $ a HUGE VALUE. REMODEL starts soonMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2010</t>
+  </si>
+  <si>
+    <t>I travel and stay in hotel way too much.... I normally plan where I stay but ............Anyway I like flat screens nice comfy bed bla bla bla. I needed fuel and got off I-10 before the bridge(last chance) I saw the SleepInn drove over to see what was in area. I spoke with the person at the desk. ask about Flat Screen Beds Hot Breakfast..SI @this time does not have these lux. She called some other hotels in area  She was so nice in trying to find what i wanted. I stayed there. GLAD I DID. very nice ,clean new paint pillows TV had a great Picture good breakfast.I stayed two nights,I staying there next week for two nights again. For the $ a HUGE VALUE. REMODEL starts soonMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r51960107-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>51960107</t>
+  </si>
+  <si>
+    <t>12/27/2009</t>
+  </si>
+  <si>
+    <t>Like the other reviewers said.... Filthy!</t>
+  </si>
+  <si>
+    <t>This has to have been one of the dirtiest hotels we've ever stayed in.  I wasn't even going to review it until I saw the other reviews that seemed to have had similar experiences.  There were empty potato chip bags under the bed and bugs.  Now that I know more about what bed bugs look like, I'd swear our room and bed had them.  The pool area was also really dirty and I really didn't want my kids to swim in the water.We pass through this area frequently but I plan to always pass this hotel by.</t>
+  </si>
+  <si>
+    <t>August 2006</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r33566784-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>33566784</t>
+  </si>
+  <si>
+    <t>06/30/2009</t>
+  </si>
+  <si>
+    <t>Awesome Hotel &amp; Awesome location</t>
+  </si>
+  <si>
+    <t>I stayed at the Sleep Inn In Slidell, La. for 5 days and will never stay anywhere else but there. The service was phenomenal and housekeeping was definitely on top of their game. I read the reviews on here and I was absolutely shocked b/c there were no signs of mold or mildew in this hotel. Overall I was very happy!</t>
+  </si>
+  <si>
+    <t>June 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r22343061-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>22343061</t>
+  </si>
+  <si>
+    <t>12/01/2008</t>
+  </si>
+  <si>
+    <t>Beware filthy hotel!</t>
+  </si>
+  <si>
+    <t>My family and I stayed here over Thanksgiving  Holiday. I was so disappointed by this hotel.  When we entered our room there were bugs flying around and a dead one under the blanket.  The blankets looked filthy like they had never been washed and the room had a smoke filled foul odor it was supposed to be nonsmoking.  I called the front desk and we were given another room which had stains and burn marks on the linens, the bathroom also had mold.  We  were so grossed out by this place we ended up checking out early.</t>
+  </si>
+  <si>
+    <t>November 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r22302828-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>22302828</t>
+  </si>
+  <si>
+    <t>11/29/2008</t>
+  </si>
+  <si>
+    <t>very dissatisfied customer</t>
+  </si>
+  <si>
+    <t>I have never seen such a filthy bathroom in any hotel I have stayed at.. There was filth all around the base of the toilet, which seemed to be leaking, and the same filth around the baseboard of the entire bathroom.With this much visible filth I wondered how much was not so visible.Reward points were supposed to cover one night, didn't happen. Of course staff said they didn't know anything about reward points.I don't ever want to stay in another Sleep Inn!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r7936597-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>7936597</t>
+  </si>
+  <si>
+    <t>06/18/2007</t>
+  </si>
+  <si>
+    <t>Good stay in June</t>
+  </si>
+  <si>
+    <t>I stayed at the Sleep Inn in Slidell, LA for one night on business in June of 2007. I arrived without a prior reservation, but was quickly and easily given a room by the very helpful desk staff. The hotel was clean and well air-conditioned. I was on the ground floor, and was pleased to note that there was absolutely no evidence of water, mold, or hurricane damage in the lobby, hallway, or my room. I would definitely stay here again for business purposes.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r7000492-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>7000492</t>
+  </si>
+  <si>
+    <t>03/08/2007</t>
+  </si>
+  <si>
+    <t>Better Than Average</t>
+  </si>
+  <si>
+    <t>We stayed at the Sleep Inn in Slidell for one night while travelling through the area.  It was a great choice for our purposes; moderate cost, clean simple room, close to the highway and not in the middle of commercial sprawl. Furnishings were clean and simple. The room generally was lacking nothing and  while not apparently newly renovated, not overly worn. The bed was comfortable and the room was very quiet although the hotel was fairly full. The breakfast buffet was in a small area off the lobby and selection was minimal: coffee, juice, pastry, bagels, cereal. Not fancy, but adequate.If looking for an affordable and comfortable stay, we'd certainly stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2007</t>
+  </si>
+  <si>
+    <t>We stayed at the Sleep Inn in Slidell for one night while travelling through the area.  It was a great choice for our purposes; moderate cost, clean simple room, close to the highway and not in the middle of commercial sprawl. Furnishings were clean and simple. The room generally was lacking nothing and  while not apparently newly renovated, not overly worn. The bed was comfortable and the room was very quiet although the hotel was fairly full. The breakfast buffet was in a small area off the lobby and selection was minimal: coffee, juice, pastry, bagels, cereal. Not fancy, but adequate.If looking for an affordable and comfortable stay, we'd certainly stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r6553575-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>6553575</t>
+  </si>
+  <si>
+    <t>01/03/2007</t>
+  </si>
+  <si>
+    <t>It works!</t>
+  </si>
+  <si>
+    <t>The Sleep Inn is nice, clean, simple.  For this level of hotel it's an excellent option.  I didn't notice much if any lingering effects from Katrina.  They offer a nice simple free breakfast in the morning. Don't expect much service.  When we called to ask for more pillows the staff said they were busy and we could come get the pillows ourselves.  We were fine with that but don't expect something even average in terms of service.</t>
+  </si>
+  <si>
+    <t>December 2006</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r5958358-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>5958358</t>
+  </si>
+  <si>
+    <t>10/14/2006</t>
+  </si>
+  <si>
+    <t>mold?</t>
+  </si>
+  <si>
+    <t>I stayed on the top floor, and the floor had a musty mold smell, and in the room the bathroom door had surface mold on it. Service was good, continental breakfast was okay. The room was dusty, and made my wife's allergies act up. I think this hotel has mold in the walls because it was not properly cleaned after Katrina.</t>
+  </si>
+  <si>
+    <t>September 2006</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r4564053-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>4564053</t>
+  </si>
+  <si>
+    <t>02/27/2006</t>
+  </si>
+  <si>
+    <t>under construction?</t>
+  </si>
+  <si>
+    <t>Stayed here one night. The hotel is still getting over Katrina, so I imagine it will be cleaner when things get back to normal. But, hey, at least it's open. Our room was clean, which is always the most important thing for me. The shower wasn't very powerful, and the showerhead hung down, limply. The stairs were only partly carpeted, and there was no carpeting in the breakfast area. The breakfast consisted of a few choices of cereal, toast and  muffins.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d124178-r2152115-Sleep_Inn-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>2152115</t>
+  </si>
+  <si>
+    <t>06/03/2004</t>
+  </si>
+  <si>
+    <t>By far the nicest Sleep Inn</t>
+  </si>
+  <si>
+    <t>By far the nicest Sleep Inn that I have slept in. Large room, immaculate, with the cute shower. Just a beautiful place. Wish the breakfast buffet had a little more on it. MoreShow less</t>
+  </si>
+  <si>
+    <t>Nick T, General Manager at Sleep Inn, responded to this reviewResponded February 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 20, 2018</t>
+  </si>
+  <si>
+    <t>By far the nicest Sleep Inn that I have slept in. Large room, immaculate, with the cute shower. Just a beautiful place. Wish the breakfast buffet had a little more on it. More</t>
   </si>
   <si>
     <t>Hotel_Name</t>
@@ -561,6 +3002,6848 @@
         <v>24</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>35</v>
+      </c>
+      <c r="X2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>44</v>
+      </c>
+      <c r="X3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>54</v>
+      </c>
+      <c r="X4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>62</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>63</v>
+      </c>
+      <c r="X5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" t="s">
+        <v>69</v>
+      </c>
+      <c r="L6" t="s">
+        <v>70</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>72</v>
+      </c>
+      <c r="X6" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>71</v>
+      </c>
+      <c r="O7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>80</v>
+      </c>
+      <c r="X7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" t="s">
+        <v>87</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>88</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>89</v>
+      </c>
+      <c r="X8" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>97</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>98</v>
+      </c>
+      <c r="X9" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>106</v>
+      </c>
+      <c r="O10" t="s">
+        <v>107</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>108</v>
+      </c>
+      <c r="X10" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>112</v>
+      </c>
+      <c r="J11" t="s">
+        <v>113</v>
+      </c>
+      <c r="K11" t="s">
+        <v>114</v>
+      </c>
+      <c r="L11" t="s">
+        <v>115</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>106</v>
+      </c>
+      <c r="O11" t="s">
+        <v>116</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>117</v>
+      </c>
+      <c r="X11" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>121</v>
+      </c>
+      <c r="J12" t="s">
+        <v>122</v>
+      </c>
+      <c r="K12" t="s">
+        <v>123</v>
+      </c>
+      <c r="L12" t="s">
+        <v>124</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>125</v>
+      </c>
+      <c r="X12" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>129</v>
+      </c>
+      <c r="J13" t="s">
+        <v>130</v>
+      </c>
+      <c r="K13" t="s">
+        <v>131</v>
+      </c>
+      <c r="L13" t="s">
+        <v>132</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>133</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>134</v>
+      </c>
+      <c r="X13" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>138</v>
+      </c>
+      <c r="J14" t="s">
+        <v>139</v>
+      </c>
+      <c r="K14" t="s">
+        <v>140</v>
+      </c>
+      <c r="L14" t="s">
+        <v>141</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>142</v>
+      </c>
+      <c r="O14" t="s">
+        <v>43</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>134</v>
+      </c>
+      <c r="X14" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>144</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s">
+        <v>145</v>
+      </c>
+      <c r="J15" t="s">
+        <v>146</v>
+      </c>
+      <c r="K15" t="s">
+        <v>147</v>
+      </c>
+      <c r="L15" t="s">
+        <v>148</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>149</v>
+      </c>
+      <c r="O15" t="s">
+        <v>34</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>150</v>
+      </c>
+      <c r="X15" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>153</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>154</v>
+      </c>
+      <c r="J16" t="s">
+        <v>155</v>
+      </c>
+      <c r="K16" t="s">
+        <v>156</v>
+      </c>
+      <c r="L16" t="s">
+        <v>157</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>149</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>158</v>
+      </c>
+      <c r="X16" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>161</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>162</v>
+      </c>
+      <c r="J17" t="s">
+        <v>163</v>
+      </c>
+      <c r="K17" t="s">
+        <v>164</v>
+      </c>
+      <c r="L17" t="s">
+        <v>165</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>166</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>167</v>
+      </c>
+      <c r="X17" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>170</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" t="s">
+        <v>171</v>
+      </c>
+      <c r="J18" t="s">
+        <v>172</v>
+      </c>
+      <c r="K18" t="s">
+        <v>173</v>
+      </c>
+      <c r="L18" t="s">
+        <v>174</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>175</v>
+      </c>
+      <c r="O18" t="s">
+        <v>116</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>176</v>
+      </c>
+      <c r="X18" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>179</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s">
+        <v>180</v>
+      </c>
+      <c r="J19" t="s">
+        <v>181</v>
+      </c>
+      <c r="K19" t="s">
+        <v>182</v>
+      </c>
+      <c r="L19" t="s">
+        <v>183</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>184</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>185</v>
+      </c>
+      <c r="X19" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" t="s">
+        <v>189</v>
+      </c>
+      <c r="J20" t="s">
+        <v>190</v>
+      </c>
+      <c r="K20" t="s">
+        <v>191</v>
+      </c>
+      <c r="L20" t="s">
+        <v>192</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>193</v>
+      </c>
+      <c r="X20" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
+        <v>196</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" t="s">
+        <v>197</v>
+      </c>
+      <c r="J21" t="s">
+        <v>198</v>
+      </c>
+      <c r="K21" t="s">
+        <v>199</v>
+      </c>
+      <c r="L21" t="s">
+        <v>200</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>201</v>
+      </c>
+      <c r="O21" t="s">
+        <v>43</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>202</v>
+      </c>
+      <c r="X21" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>205</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s">
+        <v>206</v>
+      </c>
+      <c r="J22" t="s">
+        <v>207</v>
+      </c>
+      <c r="K22" t="s">
+        <v>208</v>
+      </c>
+      <c r="L22" t="s">
+        <v>209</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>201</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>210</v>
+      </c>
+      <c r="X22" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>213</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" t="s">
+        <v>214</v>
+      </c>
+      <c r="J23" t="s">
+        <v>215</v>
+      </c>
+      <c r="K23" t="s">
+        <v>216</v>
+      </c>
+      <c r="L23" t="s">
+        <v>217</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>201</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>218</v>
+      </c>
+      <c r="X23" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" t="s">
+        <v>221</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" t="s">
+        <v>222</v>
+      </c>
+      <c r="J24" t="s">
+        <v>215</v>
+      </c>
+      <c r="K24" t="s">
+        <v>223</v>
+      </c>
+      <c r="L24" t="s">
+        <v>224</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>201</v>
+      </c>
+      <c r="O24" t="s">
+        <v>107</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>225</v>
+      </c>
+      <c r="X24" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" t="s">
+        <v>228</v>
+      </c>
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" t="s">
+        <v>229</v>
+      </c>
+      <c r="J25" t="s">
+        <v>230</v>
+      </c>
+      <c r="K25" t="s">
+        <v>231</v>
+      </c>
+      <c r="L25" t="s">
+        <v>232</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>233</v>
+      </c>
+      <c r="O25" t="s">
+        <v>107</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>234</v>
+      </c>
+      <c r="X25" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" t="s">
+        <v>237</v>
+      </c>
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" t="s">
+        <v>238</v>
+      </c>
+      <c r="J26" t="s">
+        <v>239</v>
+      </c>
+      <c r="K26" t="s">
+        <v>240</v>
+      </c>
+      <c r="L26" t="s">
+        <v>241</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>184</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>242</v>
+      </c>
+      <c r="X26" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" t="s">
+        <v>245</v>
+      </c>
+      <c r="G27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" t="s">
+        <v>246</v>
+      </c>
+      <c r="J27" t="s">
+        <v>247</v>
+      </c>
+      <c r="K27" t="s">
+        <v>248</v>
+      </c>
+      <c r="L27" t="s">
+        <v>249</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>233</v>
+      </c>
+      <c r="O27" t="s">
+        <v>43</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>2</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>250</v>
+      </c>
+      <c r="X27" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" t="s">
+        <v>253</v>
+      </c>
+      <c r="G28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" t="s">
+        <v>254</v>
+      </c>
+      <c r="J28" t="s">
+        <v>255</v>
+      </c>
+      <c r="K28" t="s">
+        <v>256</v>
+      </c>
+      <c r="L28" t="s">
+        <v>257</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>184</v>
+      </c>
+      <c r="O28" t="s">
+        <v>43</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>258</v>
+      </c>
+      <c r="X28" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" t="s">
+        <v>261</v>
+      </c>
+      <c r="G29" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" t="s">
+        <v>262</v>
+      </c>
+      <c r="J29" t="s">
+        <v>263</v>
+      </c>
+      <c r="K29" t="s">
+        <v>264</v>
+      </c>
+      <c r="L29" t="s">
+        <v>265</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>266</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>267</v>
+      </c>
+      <c r="X29" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" t="s">
+        <v>270</v>
+      </c>
+      <c r="G30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" t="s">
+        <v>271</v>
+      </c>
+      <c r="J30" t="s">
+        <v>272</v>
+      </c>
+      <c r="K30" t="s">
+        <v>273</v>
+      </c>
+      <c r="L30" t="s">
+        <v>274</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>275</v>
+      </c>
+      <c r="O30" t="s">
+        <v>107</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>2</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>2</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>276</v>
+      </c>
+      <c r="X30" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" t="s">
+        <v>279</v>
+      </c>
+      <c r="G31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" t="s">
+        <v>280</v>
+      </c>
+      <c r="J31" t="s">
+        <v>281</v>
+      </c>
+      <c r="K31" t="s">
+        <v>282</v>
+      </c>
+      <c r="L31" t="s">
+        <v>283</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>275</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>284</v>
+      </c>
+      <c r="X31" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" t="s">
+        <v>287</v>
+      </c>
+      <c r="G32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" t="s">
+        <v>288</v>
+      </c>
+      <c r="J32" t="s">
+        <v>289</v>
+      </c>
+      <c r="K32" t="s">
+        <v>290</v>
+      </c>
+      <c r="L32" t="s">
+        <v>291</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" t="s">
+        <v>293</v>
+      </c>
+      <c r="G33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" t="s">
+        <v>294</v>
+      </c>
+      <c r="J33" t="s">
+        <v>295</v>
+      </c>
+      <c r="K33" t="s">
+        <v>296</v>
+      </c>
+      <c r="L33" t="s">
+        <v>297</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>298</v>
+      </c>
+      <c r="X33" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" t="s">
+        <v>301</v>
+      </c>
+      <c r="G34" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" t="s">
+        <v>302</v>
+      </c>
+      <c r="J34" t="s">
+        <v>303</v>
+      </c>
+      <c r="K34" t="s">
+        <v>304</v>
+      </c>
+      <c r="L34" t="s">
+        <v>305</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>306</v>
+      </c>
+      <c r="O34" t="s">
+        <v>43</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>307</v>
+      </c>
+      <c r="X34" t="s">
+        <v>308</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" t="s">
+        <v>310</v>
+      </c>
+      <c r="G35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" t="s">
+        <v>311</v>
+      </c>
+      <c r="J35" t="s">
+        <v>312</v>
+      </c>
+      <c r="K35" t="s">
+        <v>313</v>
+      </c>
+      <c r="L35" t="s">
+        <v>314</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>306</v>
+      </c>
+      <c r="O35" t="s">
+        <v>107</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>315</v>
+      </c>
+      <c r="X35" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" t="s">
+        <v>318</v>
+      </c>
+      <c r="G36" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" t="s">
+        <v>319</v>
+      </c>
+      <c r="J36" t="s">
+        <v>320</v>
+      </c>
+      <c r="K36" t="s">
+        <v>321</v>
+      </c>
+      <c r="L36" t="s">
+        <v>322</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>323</v>
+      </c>
+      <c r="O36" t="s">
+        <v>43</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>324</v>
+      </c>
+      <c r="X36" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" t="s">
+        <v>327</v>
+      </c>
+      <c r="G37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" t="s">
+        <v>328</v>
+      </c>
+      <c r="J37" t="s">
+        <v>329</v>
+      </c>
+      <c r="K37" t="s">
+        <v>330</v>
+      </c>
+      <c r="L37" t="s">
+        <v>331</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>332</v>
+      </c>
+      <c r="O37" t="s">
+        <v>43</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>333</v>
+      </c>
+      <c r="X37" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" t="s">
+        <v>336</v>
+      </c>
+      <c r="G38" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" t="s">
+        <v>337</v>
+      </c>
+      <c r="J38" t="s">
+        <v>338</v>
+      </c>
+      <c r="K38" t="s">
+        <v>339</v>
+      </c>
+      <c r="L38" t="s">
+        <v>340</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>341</v>
+      </c>
+      <c r="O38" t="s">
+        <v>107</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>342</v>
+      </c>
+      <c r="X38" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" t="s">
+        <v>345</v>
+      </c>
+      <c r="G39" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" t="s">
+        <v>346</v>
+      </c>
+      <c r="J39" t="s">
+        <v>347</v>
+      </c>
+      <c r="K39" t="s">
+        <v>348</v>
+      </c>
+      <c r="L39" t="s">
+        <v>349</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>350</v>
+      </c>
+      <c r="O39" t="s">
+        <v>34</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>351</v>
+      </c>
+      <c r="X39" t="s">
+        <v>352</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" t="s">
+        <v>354</v>
+      </c>
+      <c r="G40" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" t="s">
+        <v>355</v>
+      </c>
+      <c r="J40" t="s">
+        <v>356</v>
+      </c>
+      <c r="K40" t="s">
+        <v>357</v>
+      </c>
+      <c r="L40" t="s">
+        <v>358</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>350</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>359</v>
+      </c>
+      <c r="X40" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" t="s">
+        <v>362</v>
+      </c>
+      <c r="G41" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" t="s">
+        <v>363</v>
+      </c>
+      <c r="J41" t="s">
+        <v>356</v>
+      </c>
+      <c r="K41" t="s">
+        <v>364</v>
+      </c>
+      <c r="L41" t="s">
+        <v>365</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>350</v>
+      </c>
+      <c r="O41" t="s">
+        <v>107</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>366</v>
+      </c>
+      <c r="X41" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" t="s">
+        <v>369</v>
+      </c>
+      <c r="G42" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" t="s">
+        <v>28</v>
+      </c>
+      <c r="I42" t="s">
+        <v>370</v>
+      </c>
+      <c r="J42" t="s">
+        <v>356</v>
+      </c>
+      <c r="K42" t="s">
+        <v>371</v>
+      </c>
+      <c r="L42" t="s">
+        <v>372</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>350</v>
+      </c>
+      <c r="O42" t="s">
+        <v>34</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>359</v>
+      </c>
+      <c r="X42" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" t="s">
+        <v>374</v>
+      </c>
+      <c r="G43" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" t="s">
+        <v>28</v>
+      </c>
+      <c r="I43" t="s">
+        <v>375</v>
+      </c>
+      <c r="J43" t="s">
+        <v>356</v>
+      </c>
+      <c r="K43" t="s">
+        <v>376</v>
+      </c>
+      <c r="L43" t="s">
+        <v>377</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>350</v>
+      </c>
+      <c r="O43" t="s">
+        <v>116</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>359</v>
+      </c>
+      <c r="X43" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" t="s">
+        <v>379</v>
+      </c>
+      <c r="G44" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" t="s">
+        <v>28</v>
+      </c>
+      <c r="I44" t="s">
+        <v>380</v>
+      </c>
+      <c r="J44" t="s">
+        <v>356</v>
+      </c>
+      <c r="K44" t="s">
+        <v>381</v>
+      </c>
+      <c r="L44" t="s">
+        <v>382</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>350</v>
+      </c>
+      <c r="O44" t="s">
+        <v>34</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>359</v>
+      </c>
+      <c r="X44" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" t="s">
+        <v>384</v>
+      </c>
+      <c r="G45" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45" t="s">
+        <v>28</v>
+      </c>
+      <c r="I45" t="s">
+        <v>385</v>
+      </c>
+      <c r="J45" t="s">
+        <v>386</v>
+      </c>
+      <c r="K45" t="s">
+        <v>387</v>
+      </c>
+      <c r="L45" t="s">
+        <v>388</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>350</v>
+      </c>
+      <c r="O45" t="s">
+        <v>43</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" t="s">
+        <v>389</v>
+      </c>
+      <c r="G46" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" t="s">
+        <v>390</v>
+      </c>
+      <c r="J46" t="s">
+        <v>391</v>
+      </c>
+      <c r="K46" t="s">
+        <v>392</v>
+      </c>
+      <c r="L46" t="s">
+        <v>393</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>394</v>
+      </c>
+      <c r="O46" t="s">
+        <v>43</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>395</v>
+      </c>
+      <c r="X46" t="s">
+        <v>396</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" t="s">
+        <v>398</v>
+      </c>
+      <c r="G47" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" t="s">
+        <v>399</v>
+      </c>
+      <c r="J47" t="s">
+        <v>400</v>
+      </c>
+      <c r="K47" t="s">
+        <v>401</v>
+      </c>
+      <c r="L47" t="s">
+        <v>402</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>403</v>
+      </c>
+      <c r="X47" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48" t="s">
+        <v>406</v>
+      </c>
+      <c r="G48" t="s">
+        <v>27</v>
+      </c>
+      <c r="H48" t="s">
+        <v>28</v>
+      </c>
+      <c r="I48" t="s">
+        <v>407</v>
+      </c>
+      <c r="J48" t="s">
+        <v>408</v>
+      </c>
+      <c r="K48" t="s">
+        <v>409</v>
+      </c>
+      <c r="L48" t="s">
+        <v>410</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>411</v>
+      </c>
+      <c r="X48" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" t="s">
+        <v>414</v>
+      </c>
+      <c r="G49" t="s">
+        <v>27</v>
+      </c>
+      <c r="H49" t="s">
+        <v>28</v>
+      </c>
+      <c r="I49" t="s">
+        <v>415</v>
+      </c>
+      <c r="J49" t="s">
+        <v>416</v>
+      </c>
+      <c r="K49" t="s">
+        <v>417</v>
+      </c>
+      <c r="L49" t="s">
+        <v>418</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>419</v>
+      </c>
+      <c r="X49" t="s">
+        <v>420</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50" t="s">
+        <v>422</v>
+      </c>
+      <c r="G50" t="s">
+        <v>27</v>
+      </c>
+      <c r="H50" t="s">
+        <v>28</v>
+      </c>
+      <c r="I50" t="s">
+        <v>423</v>
+      </c>
+      <c r="J50" t="s">
+        <v>424</v>
+      </c>
+      <c r="K50" t="s">
+        <v>425</v>
+      </c>
+      <c r="L50" t="s">
+        <v>426</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>427</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="s"/>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>428</v>
+      </c>
+      <c r="X50" t="s">
+        <v>429</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>25</v>
+      </c>
+      <c r="F51" t="s">
+        <v>431</v>
+      </c>
+      <c r="G51" t="s">
+        <v>27</v>
+      </c>
+      <c r="H51" t="s">
+        <v>28</v>
+      </c>
+      <c r="I51" t="s">
+        <v>432</v>
+      </c>
+      <c r="J51" t="s">
+        <v>433</v>
+      </c>
+      <c r="K51" t="s">
+        <v>434</v>
+      </c>
+      <c r="L51" t="s">
+        <v>435</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>436</v>
+      </c>
+      <c r="O51" t="s">
+        <v>34</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>437</v>
+      </c>
+      <c r="X51" t="s">
+        <v>438</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>25</v>
+      </c>
+      <c r="F52" t="s">
+        <v>440</v>
+      </c>
+      <c r="G52" t="s">
+        <v>27</v>
+      </c>
+      <c r="H52" t="s">
+        <v>28</v>
+      </c>
+      <c r="I52" t="s">
+        <v>441</v>
+      </c>
+      <c r="J52" t="s">
+        <v>442</v>
+      </c>
+      <c r="K52" t="s">
+        <v>443</v>
+      </c>
+      <c r="L52" t="s">
+        <v>444</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>445</v>
+      </c>
+      <c r="O52" t="s">
+        <v>43</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>446</v>
+      </c>
+      <c r="X52" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>25</v>
+      </c>
+      <c r="F53" t="s">
+        <v>449</v>
+      </c>
+      <c r="G53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H53" t="s">
+        <v>28</v>
+      </c>
+      <c r="I53" t="s">
+        <v>450</v>
+      </c>
+      <c r="J53" t="s">
+        <v>451</v>
+      </c>
+      <c r="K53" t="s">
+        <v>452</v>
+      </c>
+      <c r="L53" t="s">
+        <v>453</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>454</v>
+      </c>
+      <c r="O53" t="s">
+        <v>43</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>455</v>
+      </c>
+      <c r="X53" t="s">
+        <v>456</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>25</v>
+      </c>
+      <c r="F54" t="s">
+        <v>458</v>
+      </c>
+      <c r="G54" t="s">
+        <v>27</v>
+      </c>
+      <c r="H54" t="s">
+        <v>28</v>
+      </c>
+      <c r="I54" t="s">
+        <v>459</v>
+      </c>
+      <c r="J54" t="s">
+        <v>451</v>
+      </c>
+      <c r="K54" t="s">
+        <v>460</v>
+      </c>
+      <c r="L54" t="s">
+        <v>461</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>454</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>455</v>
+      </c>
+      <c r="X54" t="s">
+        <v>456</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>25</v>
+      </c>
+      <c r="F55" t="s">
+        <v>463</v>
+      </c>
+      <c r="G55" t="s">
+        <v>27</v>
+      </c>
+      <c r="H55" t="s">
+        <v>28</v>
+      </c>
+      <c r="I55" t="s">
+        <v>464</v>
+      </c>
+      <c r="J55" t="s">
+        <v>465</v>
+      </c>
+      <c r="K55" t="s">
+        <v>466</v>
+      </c>
+      <c r="L55" t="s">
+        <v>467</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>468</v>
+      </c>
+      <c r="O55" t="s">
+        <v>43</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>469</v>
+      </c>
+      <c r="X55" t="s">
+        <v>470</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>25</v>
+      </c>
+      <c r="F56" t="s">
+        <v>472</v>
+      </c>
+      <c r="G56" t="s">
+        <v>27</v>
+      </c>
+      <c r="H56" t="s">
+        <v>28</v>
+      </c>
+      <c r="I56" t="s">
+        <v>473</v>
+      </c>
+      <c r="J56" t="s">
+        <v>474</v>
+      </c>
+      <c r="K56" t="s">
+        <v>475</v>
+      </c>
+      <c r="L56" t="s">
+        <v>476</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>468</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>477</v>
+      </c>
+      <c r="X56" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>25</v>
+      </c>
+      <c r="F57" t="s">
+        <v>480</v>
+      </c>
+      <c r="G57" t="s">
+        <v>27</v>
+      </c>
+      <c r="H57" t="s">
+        <v>28</v>
+      </c>
+      <c r="I57" t="s">
+        <v>481</v>
+      </c>
+      <c r="J57" t="s">
+        <v>482</v>
+      </c>
+      <c r="K57" t="s">
+        <v>483</v>
+      </c>
+      <c r="L57" t="s">
+        <v>484</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>485</v>
+      </c>
+      <c r="O57" t="s">
+        <v>116</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="s"/>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>486</v>
+      </c>
+      <c r="X57" t="s">
+        <v>487</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>25</v>
+      </c>
+      <c r="F58" t="s">
+        <v>489</v>
+      </c>
+      <c r="G58" t="s">
+        <v>27</v>
+      </c>
+      <c r="H58" t="s">
+        <v>28</v>
+      </c>
+      <c r="I58" t="s">
+        <v>490</v>
+      </c>
+      <c r="J58" t="s">
+        <v>491</v>
+      </c>
+      <c r="K58" t="s">
+        <v>492</v>
+      </c>
+      <c r="L58" t="s">
+        <v>493</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>494</v>
+      </c>
+      <c r="X58" t="s">
+        <v>495</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>25</v>
+      </c>
+      <c r="F59" t="s">
+        <v>497</v>
+      </c>
+      <c r="G59" t="s">
+        <v>27</v>
+      </c>
+      <c r="H59" t="s">
+        <v>28</v>
+      </c>
+      <c r="I59" t="s">
+        <v>498</v>
+      </c>
+      <c r="J59" t="s">
+        <v>499</v>
+      </c>
+      <c r="K59" t="s">
+        <v>500</v>
+      </c>
+      <c r="L59" t="s">
+        <v>501</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>502</v>
+      </c>
+      <c r="O59" t="s">
+        <v>107</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>503</v>
+      </c>
+      <c r="X59" t="s">
+        <v>504</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F60" t="s">
+        <v>506</v>
+      </c>
+      <c r="G60" t="s">
+        <v>27</v>
+      </c>
+      <c r="H60" t="s">
+        <v>28</v>
+      </c>
+      <c r="I60" t="s">
+        <v>507</v>
+      </c>
+      <c r="J60" t="s">
+        <v>508</v>
+      </c>
+      <c r="K60" t="s">
+        <v>509</v>
+      </c>
+      <c r="L60" t="s">
+        <v>510</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>502</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>511</v>
+      </c>
+      <c r="X60" t="s">
+        <v>512</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>25</v>
+      </c>
+      <c r="F61" t="s">
+        <v>514</v>
+      </c>
+      <c r="G61" t="s">
+        <v>27</v>
+      </c>
+      <c r="H61" t="s">
+        <v>28</v>
+      </c>
+      <c r="I61" t="s">
+        <v>515</v>
+      </c>
+      <c r="J61" t="s">
+        <v>516</v>
+      </c>
+      <c r="K61" t="s">
+        <v>517</v>
+      </c>
+      <c r="L61" t="s">
+        <v>518</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>519</v>
+      </c>
+      <c r="O61" t="s">
+        <v>43</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>520</v>
+      </c>
+      <c r="X61" t="s">
+        <v>521</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>25</v>
+      </c>
+      <c r="F62" t="s">
+        <v>523</v>
+      </c>
+      <c r="G62" t="s">
+        <v>27</v>
+      </c>
+      <c r="H62" t="s">
+        <v>28</v>
+      </c>
+      <c r="I62" t="s">
+        <v>524</v>
+      </c>
+      <c r="J62" t="s">
+        <v>525</v>
+      </c>
+      <c r="K62" t="s">
+        <v>526</v>
+      </c>
+      <c r="L62" t="s">
+        <v>527</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>528</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>529</v>
+      </c>
+      <c r="X62" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>25</v>
+      </c>
+      <c r="F63" t="s">
+        <v>532</v>
+      </c>
+      <c r="G63" t="s">
+        <v>27</v>
+      </c>
+      <c r="H63" t="s">
+        <v>28</v>
+      </c>
+      <c r="I63" t="s">
+        <v>533</v>
+      </c>
+      <c r="J63" t="s">
+        <v>534</v>
+      </c>
+      <c r="K63" t="s">
+        <v>535</v>
+      </c>
+      <c r="L63" t="s">
+        <v>536</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>528</v>
+      </c>
+      <c r="O63" t="s">
+        <v>107</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>3</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>3</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>537</v>
+      </c>
+      <c r="X63" t="s">
+        <v>538</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>25</v>
+      </c>
+      <c r="F64" t="s">
+        <v>540</v>
+      </c>
+      <c r="G64" t="s">
+        <v>27</v>
+      </c>
+      <c r="H64" t="s">
+        <v>28</v>
+      </c>
+      <c r="I64" t="s">
+        <v>541</v>
+      </c>
+      <c r="J64" t="s">
+        <v>542</v>
+      </c>
+      <c r="K64" t="s">
+        <v>543</v>
+      </c>
+      <c r="L64" t="s">
+        <v>544</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>545</v>
+      </c>
+      <c r="O64" t="s">
+        <v>43</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>3</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>546</v>
+      </c>
+      <c r="X64" t="s">
+        <v>547</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>25</v>
+      </c>
+      <c r="F65" t="s">
+        <v>549</v>
+      </c>
+      <c r="G65" t="s">
+        <v>27</v>
+      </c>
+      <c r="H65" t="s">
+        <v>28</v>
+      </c>
+      <c r="I65" t="s">
+        <v>550</v>
+      </c>
+      <c r="J65" t="s">
+        <v>551</v>
+      </c>
+      <c r="K65" t="s">
+        <v>552</v>
+      </c>
+      <c r="L65" t="s">
+        <v>553</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s"/>
+      <c r="O65" t="s"/>
+      <c r="P65" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>2</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>2</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>554</v>
+      </c>
+      <c r="X65" t="s">
+        <v>555</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>25</v>
+      </c>
+      <c r="F66" t="s">
+        <v>557</v>
+      </c>
+      <c r="G66" t="s">
+        <v>27</v>
+      </c>
+      <c r="H66" t="s">
+        <v>28</v>
+      </c>
+      <c r="I66" t="s">
+        <v>558</v>
+      </c>
+      <c r="J66" t="s">
+        <v>559</v>
+      </c>
+      <c r="K66" t="s"/>
+      <c r="L66" t="s">
+        <v>560</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>528</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>561</v>
+      </c>
+      <c r="X66" t="s">
+        <v>562</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>25</v>
+      </c>
+      <c r="F67" t="s">
+        <v>564</v>
+      </c>
+      <c r="G67" t="s">
+        <v>27</v>
+      </c>
+      <c r="H67" t="s">
+        <v>28</v>
+      </c>
+      <c r="I67" t="s">
+        <v>565</v>
+      </c>
+      <c r="J67" t="s">
+        <v>566</v>
+      </c>
+      <c r="K67" t="s">
+        <v>567</v>
+      </c>
+      <c r="L67" t="s">
+        <v>568</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>569</v>
+      </c>
+      <c r="O67" t="s">
+        <v>43</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>3</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>570</v>
+      </c>
+      <c r="X67" t="s">
+        <v>571</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>25</v>
+      </c>
+      <c r="F68" t="s">
+        <v>573</v>
+      </c>
+      <c r="G68" t="s">
+        <v>27</v>
+      </c>
+      <c r="H68" t="s">
+        <v>28</v>
+      </c>
+      <c r="I68" t="s">
+        <v>574</v>
+      </c>
+      <c r="J68" t="s">
+        <v>575</v>
+      </c>
+      <c r="K68" t="s">
+        <v>576</v>
+      </c>
+      <c r="L68" t="s">
+        <v>577</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>528</v>
+      </c>
+      <c r="O68" t="s">
+        <v>43</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>570</v>
+      </c>
+      <c r="X68" t="s">
+        <v>571</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>25</v>
+      </c>
+      <c r="F69" t="s">
+        <v>579</v>
+      </c>
+      <c r="G69" t="s">
+        <v>27</v>
+      </c>
+      <c r="H69" t="s">
+        <v>28</v>
+      </c>
+      <c r="I69" t="s">
+        <v>580</v>
+      </c>
+      <c r="J69" t="s">
+        <v>581</v>
+      </c>
+      <c r="K69" t="s">
+        <v>582</v>
+      </c>
+      <c r="L69" t="s">
+        <v>583</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>528</v>
+      </c>
+      <c r="O69" t="s">
+        <v>43</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>4</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>584</v>
+      </c>
+      <c r="X69" t="s">
+        <v>585</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>25</v>
+      </c>
+      <c r="F70" t="s">
+        <v>587</v>
+      </c>
+      <c r="G70" t="s">
+        <v>27</v>
+      </c>
+      <c r="H70" t="s">
+        <v>28</v>
+      </c>
+      <c r="I70" t="s">
+        <v>588</v>
+      </c>
+      <c r="J70" t="s">
+        <v>589</v>
+      </c>
+      <c r="K70" t="s">
+        <v>590</v>
+      </c>
+      <c r="L70" t="s">
+        <v>591</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>528</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>3</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>3</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>592</v>
+      </c>
+      <c r="X70" t="s">
+        <v>593</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>25</v>
+      </c>
+      <c r="F71" t="s">
+        <v>595</v>
+      </c>
+      <c r="G71" t="s">
+        <v>27</v>
+      </c>
+      <c r="H71" t="s">
+        <v>28</v>
+      </c>
+      <c r="I71" t="s">
+        <v>596</v>
+      </c>
+      <c r="J71" t="s">
+        <v>597</v>
+      </c>
+      <c r="K71" t="s">
+        <v>598</v>
+      </c>
+      <c r="L71" t="s">
+        <v>599</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>600</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>601</v>
+      </c>
+      <c r="X71" t="s">
+        <v>602</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>25</v>
+      </c>
+      <c r="F72" t="s">
+        <v>604</v>
+      </c>
+      <c r="G72" t="s">
+        <v>27</v>
+      </c>
+      <c r="H72" t="s">
+        <v>28</v>
+      </c>
+      <c r="I72" t="s">
+        <v>605</v>
+      </c>
+      <c r="J72" t="s">
+        <v>606</v>
+      </c>
+      <c r="K72" t="s">
+        <v>607</v>
+      </c>
+      <c r="L72" t="s">
+        <v>608</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>569</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>609</v>
+      </c>
+      <c r="X72" t="s">
+        <v>610</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>25</v>
+      </c>
+      <c r="F73" t="s">
+        <v>612</v>
+      </c>
+      <c r="G73" t="s">
+        <v>27</v>
+      </c>
+      <c r="H73" t="s">
+        <v>28</v>
+      </c>
+      <c r="I73" t="s">
+        <v>613</v>
+      </c>
+      <c r="J73" t="s">
+        <v>614</v>
+      </c>
+      <c r="K73" t="s">
+        <v>615</v>
+      </c>
+      <c r="L73" t="s">
+        <v>616</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>617</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>618</v>
+      </c>
+      <c r="X73" t="s">
+        <v>619</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>25</v>
+      </c>
+      <c r="F74" t="s">
+        <v>621</v>
+      </c>
+      <c r="G74" t="s">
+        <v>27</v>
+      </c>
+      <c r="H74" t="s">
+        <v>28</v>
+      </c>
+      <c r="I74" t="s">
+        <v>622</v>
+      </c>
+      <c r="J74" t="s">
+        <v>623</v>
+      </c>
+      <c r="K74" t="s">
+        <v>624</v>
+      </c>
+      <c r="L74" t="s">
+        <v>625</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>626</v>
+      </c>
+      <c r="O74" t="s">
+        <v>43</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>3</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>627</v>
+      </c>
+      <c r="X74" t="s">
+        <v>628</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>25</v>
+      </c>
+      <c r="F75" t="s">
+        <v>630</v>
+      </c>
+      <c r="G75" t="s">
+        <v>27</v>
+      </c>
+      <c r="H75" t="s">
+        <v>28</v>
+      </c>
+      <c r="I75" t="s">
+        <v>631</v>
+      </c>
+      <c r="J75" t="s">
+        <v>632</v>
+      </c>
+      <c r="K75" t="s">
+        <v>633</v>
+      </c>
+      <c r="L75" t="s">
+        <v>634</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s"/>
+      <c r="O75" t="s"/>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>635</v>
+      </c>
+      <c r="X75" t="s">
+        <v>636</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>25</v>
+      </c>
+      <c r="F76" t="s">
+        <v>638</v>
+      </c>
+      <c r="G76" t="s">
+        <v>27</v>
+      </c>
+      <c r="H76" t="s">
+        <v>28</v>
+      </c>
+      <c r="I76" t="s">
+        <v>639</v>
+      </c>
+      <c r="J76" t="s">
+        <v>640</v>
+      </c>
+      <c r="K76" t="s">
+        <v>641</v>
+      </c>
+      <c r="L76" t="s">
+        <v>642</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="s">
+        <v>643</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>3</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>25</v>
+      </c>
+      <c r="F77" t="s">
+        <v>645</v>
+      </c>
+      <c r="G77" t="s">
+        <v>27</v>
+      </c>
+      <c r="H77" t="s">
+        <v>28</v>
+      </c>
+      <c r="I77" t="s">
+        <v>646</v>
+      </c>
+      <c r="J77" t="s">
+        <v>647</v>
+      </c>
+      <c r="K77" t="s">
+        <v>648</v>
+      </c>
+      <c r="L77" t="s">
+        <v>649</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s"/>
+      <c r="O77" t="s"/>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>25</v>
+      </c>
+      <c r="F78" t="s">
+        <v>651</v>
+      </c>
+      <c r="G78" t="s">
+        <v>27</v>
+      </c>
+      <c r="H78" t="s">
+        <v>28</v>
+      </c>
+      <c r="I78" t="s">
+        <v>652</v>
+      </c>
+      <c r="J78" t="s">
+        <v>653</v>
+      </c>
+      <c r="K78" t="s">
+        <v>654</v>
+      </c>
+      <c r="L78" t="s">
+        <v>655</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>656</v>
+      </c>
+      <c r="O78" t="s">
+        <v>43</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>25</v>
+      </c>
+      <c r="F79" t="s">
+        <v>657</v>
+      </c>
+      <c r="G79" t="s">
+        <v>27</v>
+      </c>
+      <c r="H79" t="s">
+        <v>28</v>
+      </c>
+      <c r="I79" t="s">
+        <v>658</v>
+      </c>
+      <c r="J79" t="s">
+        <v>659</v>
+      </c>
+      <c r="K79" t="s">
+        <v>660</v>
+      </c>
+      <c r="L79" t="s">
+        <v>661</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>662</v>
+      </c>
+      <c r="O79" t="s">
+        <v>107</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>25</v>
+      </c>
+      <c r="F80" t="s">
+        <v>663</v>
+      </c>
+      <c r="G80" t="s">
+        <v>27</v>
+      </c>
+      <c r="H80" t="s">
+        <v>28</v>
+      </c>
+      <c r="I80" t="s">
+        <v>664</v>
+      </c>
+      <c r="J80" t="s">
+        <v>665</v>
+      </c>
+      <c r="K80" t="s">
+        <v>666</v>
+      </c>
+      <c r="L80" t="s">
+        <v>667</v>
+      </c>
+      <c r="M80" t="n">
+        <v>3</v>
+      </c>
+      <c r="N80" t="s">
+        <v>662</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>3</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>3</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>25</v>
+      </c>
+      <c r="F81" t="s">
+        <v>669</v>
+      </c>
+      <c r="G81" t="s">
+        <v>27</v>
+      </c>
+      <c r="H81" t="s">
+        <v>28</v>
+      </c>
+      <c r="I81" t="s">
+        <v>670</v>
+      </c>
+      <c r="J81" t="s">
+        <v>671</v>
+      </c>
+      <c r="K81" t="s">
+        <v>672</v>
+      </c>
+      <c r="L81" t="s">
+        <v>673</v>
+      </c>
+      <c r="M81" t="n">
+        <v>2</v>
+      </c>
+      <c r="N81" t="s">
+        <v>656</v>
+      </c>
+      <c r="O81" t="s">
+        <v>53</v>
+      </c>
+      <c r="P81" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>3</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="s"/>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>1</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>25</v>
+      </c>
+      <c r="F82" t="s">
+        <v>675</v>
+      </c>
+      <c r="G82" t="s">
+        <v>27</v>
+      </c>
+      <c r="H82" t="s">
+        <v>28</v>
+      </c>
+      <c r="I82" t="s">
+        <v>676</v>
+      </c>
+      <c r="J82" t="s">
+        <v>677</v>
+      </c>
+      <c r="K82" t="s">
+        <v>678</v>
+      </c>
+      <c r="L82" t="s">
+        <v>679</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="s">
+        <v>680</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>2</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>2</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>1</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>25</v>
+      </c>
+      <c r="F83" t="s">
+        <v>682</v>
+      </c>
+      <c r="G83" t="s">
+        <v>27</v>
+      </c>
+      <c r="H83" t="s">
+        <v>28</v>
+      </c>
+      <c r="I83" t="s">
+        <v>683</v>
+      </c>
+      <c r="J83" t="s">
+        <v>684</v>
+      </c>
+      <c r="K83" t="s">
+        <v>685</v>
+      </c>
+      <c r="L83" t="s">
+        <v>686</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>687</v>
+      </c>
+      <c r="O83" t="s">
+        <v>43</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>25</v>
+      </c>
+      <c r="F84" t="s">
+        <v>688</v>
+      </c>
+      <c r="G84" t="s">
+        <v>27</v>
+      </c>
+      <c r="H84" t="s">
+        <v>28</v>
+      </c>
+      <c r="I84" t="s">
+        <v>689</v>
+      </c>
+      <c r="J84" t="s">
+        <v>690</v>
+      </c>
+      <c r="K84" t="s">
+        <v>691</v>
+      </c>
+      <c r="L84" t="s">
+        <v>692</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>693</v>
+      </c>
+      <c r="O84" t="s">
+        <v>53</v>
+      </c>
+      <c r="P84" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>4</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>4</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>4</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>25</v>
+      </c>
+      <c r="F85" t="s">
+        <v>695</v>
+      </c>
+      <c r="G85" t="s">
+        <v>27</v>
+      </c>
+      <c r="H85" t="s">
+        <v>28</v>
+      </c>
+      <c r="I85" t="s">
+        <v>696</v>
+      </c>
+      <c r="J85" t="s">
+        <v>697</v>
+      </c>
+      <c r="K85" t="s">
+        <v>698</v>
+      </c>
+      <c r="L85" t="s">
+        <v>699</v>
+      </c>
+      <c r="M85" t="n">
+        <v>3</v>
+      </c>
+      <c r="N85" t="s">
+        <v>700</v>
+      </c>
+      <c r="O85" t="s">
+        <v>43</v>
+      </c>
+      <c r="P85" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>3</v>
+      </c>
+      <c r="R85" t="n">
+        <v>3</v>
+      </c>
+      <c r="S85" t="n">
+        <v>3</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="s"/>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>25</v>
+      </c>
+      <c r="F86" t="s">
+        <v>702</v>
+      </c>
+      <c r="G86" t="s">
+        <v>27</v>
+      </c>
+      <c r="H86" t="s">
+        <v>28</v>
+      </c>
+      <c r="I86" t="s">
+        <v>703</v>
+      </c>
+      <c r="J86" t="s">
+        <v>704</v>
+      </c>
+      <c r="K86" t="s">
+        <v>705</v>
+      </c>
+      <c r="L86" t="s">
+        <v>706</v>
+      </c>
+      <c r="M86" t="n">
+        <v>3</v>
+      </c>
+      <c r="N86" t="s"/>
+      <c r="O86" t="s"/>
+      <c r="P86" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>3</v>
+      </c>
+      <c r="R86" t="n">
+        <v>3</v>
+      </c>
+      <c r="S86" t="n">
+        <v>4</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>4</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>25</v>
+      </c>
+      <c r="F87" t="s">
+        <v>707</v>
+      </c>
+      <c r="G87" t="s">
+        <v>27</v>
+      </c>
+      <c r="H87" t="s">
+        <v>28</v>
+      </c>
+      <c r="I87" t="s">
+        <v>708</v>
+      </c>
+      <c r="J87" t="s">
+        <v>709</v>
+      </c>
+      <c r="K87" t="s">
+        <v>710</v>
+      </c>
+      <c r="L87" t="s">
+        <v>711</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>712</v>
+      </c>
+      <c r="O87" t="s">
+        <v>53</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>4</v>
+      </c>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>25</v>
+      </c>
+      <c r="F88" t="s">
+        <v>713</v>
+      </c>
+      <c r="G88" t="s">
+        <v>27</v>
+      </c>
+      <c r="H88" t="s">
+        <v>28</v>
+      </c>
+      <c r="I88" t="s">
+        <v>714</v>
+      </c>
+      <c r="J88" t="s">
+        <v>715</v>
+      </c>
+      <c r="K88" t="s">
+        <v>716</v>
+      </c>
+      <c r="L88" t="s">
+        <v>717</v>
+      </c>
+      <c r="M88" t="n">
+        <v>3</v>
+      </c>
+      <c r="N88" t="s"/>
+      <c r="O88" t="s"/>
+      <c r="P88" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>3</v>
+      </c>
+      <c r="R88" t="n">
+        <v>3</v>
+      </c>
+      <c r="S88" t="n">
+        <v>3</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>25</v>
+      </c>
+      <c r="F89" t="s">
+        <v>718</v>
+      </c>
+      <c r="G89" t="s">
+        <v>27</v>
+      </c>
+      <c r="H89" t="s">
+        <v>28</v>
+      </c>
+      <c r="I89" t="s">
+        <v>719</v>
+      </c>
+      <c r="J89" t="s">
+        <v>720</v>
+      </c>
+      <c r="K89" t="s">
+        <v>721</v>
+      </c>
+      <c r="L89" t="s">
+        <v>722</v>
+      </c>
+      <c r="M89" t="n">
+        <v>2</v>
+      </c>
+      <c r="N89" t="s">
+        <v>723</v>
+      </c>
+      <c r="O89" t="s">
+        <v>34</v>
+      </c>
+      <c r="P89" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>4</v>
+      </c>
+      <c r="R89" t="n">
+        <v>4</v>
+      </c>
+      <c r="S89" t="n">
+        <v>1</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>2</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>25</v>
+      </c>
+      <c r="F90" t="s">
+        <v>725</v>
+      </c>
+      <c r="G90" t="s">
+        <v>27</v>
+      </c>
+      <c r="H90" t="s">
+        <v>28</v>
+      </c>
+      <c r="I90" t="s">
+        <v>726</v>
+      </c>
+      <c r="J90" t="s">
+        <v>727</v>
+      </c>
+      <c r="K90" t="s">
+        <v>728</v>
+      </c>
+      <c r="L90" t="s">
+        <v>729</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>723</v>
+      </c>
+      <c r="O90" t="s">
+        <v>34</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>25</v>
+      </c>
+      <c r="F91" t="s">
+        <v>730</v>
+      </c>
+      <c r="G91" t="s">
+        <v>27</v>
+      </c>
+      <c r="H91" t="s">
+        <v>28</v>
+      </c>
+      <c r="I91" t="s">
+        <v>731</v>
+      </c>
+      <c r="J91" t="s">
+        <v>732</v>
+      </c>
+      <c r="K91" t="s">
+        <v>733</v>
+      </c>
+      <c r="L91" t="s">
+        <v>734</v>
+      </c>
+      <c r="M91" t="n">
+        <v>3</v>
+      </c>
+      <c r="N91" t="s">
+        <v>735</v>
+      </c>
+      <c r="O91" t="s">
+        <v>43</v>
+      </c>
+      <c r="P91" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>3</v>
+      </c>
+      <c r="R91" t="n">
+        <v>3</v>
+      </c>
+      <c r="S91" t="n">
+        <v>3</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>3</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>25</v>
+      </c>
+      <c r="F92" t="s">
+        <v>737</v>
+      </c>
+      <c r="G92" t="s">
+        <v>27</v>
+      </c>
+      <c r="H92" t="s">
+        <v>28</v>
+      </c>
+      <c r="I92" t="s">
+        <v>738</v>
+      </c>
+      <c r="J92" t="s">
+        <v>739</v>
+      </c>
+      <c r="K92" t="s">
+        <v>740</v>
+      </c>
+      <c r="L92" t="s">
+        <v>741</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>735</v>
+      </c>
+      <c r="O92" t="s">
+        <v>53</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>4</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>25</v>
+      </c>
+      <c r="F93" t="s">
+        <v>742</v>
+      </c>
+      <c r="G93" t="s">
+        <v>27</v>
+      </c>
+      <c r="H93" t="s">
+        <v>28</v>
+      </c>
+      <c r="I93" t="s">
+        <v>743</v>
+      </c>
+      <c r="J93" t="s">
+        <v>744</v>
+      </c>
+      <c r="K93" t="s">
+        <v>745</v>
+      </c>
+      <c r="L93" t="s">
+        <v>746</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s"/>
+      <c r="O93" t="s"/>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>25</v>
+      </c>
+      <c r="F94" t="s">
+        <v>747</v>
+      </c>
+      <c r="G94" t="s">
+        <v>27</v>
+      </c>
+      <c r="H94" t="s">
+        <v>28</v>
+      </c>
+      <c r="I94" t="s">
+        <v>748</v>
+      </c>
+      <c r="J94" t="s">
+        <v>749</v>
+      </c>
+      <c r="K94" t="s">
+        <v>750</v>
+      </c>
+      <c r="L94" t="s">
+        <v>751</v>
+      </c>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s">
+        <v>752</v>
+      </c>
+      <c r="O94" t="s">
+        <v>43</v>
+      </c>
+      <c r="P94" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>4</v>
+      </c>
+      <c r="R94" t="n">
+        <v>4</v>
+      </c>
+      <c r="S94" t="n">
+        <v>4</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>4</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>25</v>
+      </c>
+      <c r="F95" t="s">
+        <v>753</v>
+      </c>
+      <c r="G95" t="s">
+        <v>27</v>
+      </c>
+      <c r="H95" t="s">
+        <v>28</v>
+      </c>
+      <c r="I95" t="s">
+        <v>754</v>
+      </c>
+      <c r="J95" t="s">
+        <v>755</v>
+      </c>
+      <c r="K95" t="s">
+        <v>756</v>
+      </c>
+      <c r="L95" t="s">
+        <v>757</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>758</v>
+      </c>
+      <c r="O95" t="s">
+        <v>116</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="s"/>
+      <c r="R95" t="s"/>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>25</v>
+      </c>
+      <c r="F96" t="s">
+        <v>759</v>
+      </c>
+      <c r="G96" t="s">
+        <v>27</v>
+      </c>
+      <c r="H96" t="s">
+        <v>28</v>
+      </c>
+      <c r="I96" t="s">
+        <v>760</v>
+      </c>
+      <c r="J96" t="s">
+        <v>761</v>
+      </c>
+      <c r="K96" t="s">
+        <v>762</v>
+      </c>
+      <c r="L96" t="s">
+        <v>763</v>
+      </c>
+      <c r="M96" t="n">
+        <v>3</v>
+      </c>
+      <c r="N96" t="s">
+        <v>764</v>
+      </c>
+      <c r="O96" t="s">
+        <v>43</v>
+      </c>
+      <c r="P96" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>4</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="s"/>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>25</v>
+      </c>
+      <c r="F97" t="s">
+        <v>765</v>
+      </c>
+      <c r="G97" t="s">
+        <v>27</v>
+      </c>
+      <c r="H97" t="s">
+        <v>28</v>
+      </c>
+      <c r="I97" t="s">
+        <v>766</v>
+      </c>
+      <c r="J97" t="s">
+        <v>767</v>
+      </c>
+      <c r="K97" t="s">
+        <v>768</v>
+      </c>
+      <c r="L97" t="s">
+        <v>769</v>
+      </c>
+      <c r="M97" t="n">
+        <v>3</v>
+      </c>
+      <c r="N97" t="s">
+        <v>770</v>
+      </c>
+      <c r="O97" t="s">
+        <v>34</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>3</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>4</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>4</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>25</v>
+      </c>
+      <c r="F98" t="s">
+        <v>772</v>
+      </c>
+      <c r="G98" t="s">
+        <v>27</v>
+      </c>
+      <c r="H98" t="s">
+        <v>28</v>
+      </c>
+      <c r="I98" t="s">
+        <v>773</v>
+      </c>
+      <c r="J98" t="s">
+        <v>774</v>
+      </c>
+      <c r="K98" t="s">
+        <v>775</v>
+      </c>
+      <c r="L98" t="s">
+        <v>776</v>
+      </c>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="N98" t="s">
+        <v>777</v>
+      </c>
+      <c r="O98" t="s">
+        <v>53</v>
+      </c>
+      <c r="P98" t="s"/>
+      <c r="Q98" t="s"/>
+      <c r="R98" t="s"/>
+      <c r="S98" t="n">
+        <v>1</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>1</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>25</v>
+      </c>
+      <c r="F99" t="s">
+        <v>778</v>
+      </c>
+      <c r="G99" t="s">
+        <v>27</v>
+      </c>
+      <c r="H99" t="s">
+        <v>28</v>
+      </c>
+      <c r="I99" t="s">
+        <v>779</v>
+      </c>
+      <c r="J99" t="s">
+        <v>780</v>
+      </c>
+      <c r="K99" t="s">
+        <v>781</v>
+      </c>
+      <c r="L99" t="s">
+        <v>782</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>783</v>
+      </c>
+      <c r="O99" t="s">
+        <v>34</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>25</v>
+      </c>
+      <c r="F100" t="s">
+        <v>784</v>
+      </c>
+      <c r="G100" t="s">
+        <v>27</v>
+      </c>
+      <c r="H100" t="s">
+        <v>28</v>
+      </c>
+      <c r="I100" t="s">
+        <v>785</v>
+      </c>
+      <c r="J100" t="s">
+        <v>786</v>
+      </c>
+      <c r="K100" t="s">
+        <v>787</v>
+      </c>
+      <c r="L100" t="s">
+        <v>788</v>
+      </c>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" t="s">
+        <v>789</v>
+      </c>
+      <c r="O100" t="s">
+        <v>53</v>
+      </c>
+      <c r="P100" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>1</v>
+      </c>
+      <c r="R100" t="n">
+        <v>3</v>
+      </c>
+      <c r="S100" t="n">
+        <v>1</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="s"/>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>25</v>
+      </c>
+      <c r="F101" t="s">
+        <v>790</v>
+      </c>
+      <c r="G101" t="s">
+        <v>27</v>
+      </c>
+      <c r="H101" t="s">
+        <v>28</v>
+      </c>
+      <c r="I101" t="s">
+        <v>791</v>
+      </c>
+      <c r="J101" t="s">
+        <v>792</v>
+      </c>
+      <c r="K101" t="s">
+        <v>793</v>
+      </c>
+      <c r="L101" t="s">
+        <v>794</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="s">
+        <v>789</v>
+      </c>
+      <c r="O101" t="s">
+        <v>34</v>
+      </c>
+      <c r="P101" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>1</v>
+      </c>
+      <c r="R101" t="n">
+        <v>3</v>
+      </c>
+      <c r="S101" t="n">
+        <v>1</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="s"/>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>25</v>
+      </c>
+      <c r="F102" t="s">
+        <v>795</v>
+      </c>
+      <c r="G102" t="s">
+        <v>27</v>
+      </c>
+      <c r="H102" t="s">
+        <v>28</v>
+      </c>
+      <c r="I102" t="s">
+        <v>796</v>
+      </c>
+      <c r="J102" t="s">
+        <v>797</v>
+      </c>
+      <c r="K102" t="s">
+        <v>798</v>
+      </c>
+      <c r="L102" t="s">
+        <v>799</v>
+      </c>
+      <c r="M102" t="n">
+        <v>4</v>
+      </c>
+      <c r="N102" t="s"/>
+      <c r="O102" t="s"/>
+      <c r="P102" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>4</v>
+      </c>
+      <c r="R102" t="n">
+        <v>4</v>
+      </c>
+      <c r="S102" t="n">
+        <v>4</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>4</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>25</v>
+      </c>
+      <c r="F103" t="s">
+        <v>800</v>
+      </c>
+      <c r="G103" t="s">
+        <v>27</v>
+      </c>
+      <c r="H103" t="s">
+        <v>28</v>
+      </c>
+      <c r="I103" t="s">
+        <v>801</v>
+      </c>
+      <c r="J103" t="s">
+        <v>802</v>
+      </c>
+      <c r="K103" t="s">
+        <v>803</v>
+      </c>
+      <c r="L103" t="s">
+        <v>804</v>
+      </c>
+      <c r="M103" t="n">
+        <v>4</v>
+      </c>
+      <c r="N103" t="s">
+        <v>805</v>
+      </c>
+      <c r="O103" t="s">
+        <v>43</v>
+      </c>
+      <c r="P103" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>3</v>
+      </c>
+      <c r="R103" t="n">
+        <v>4</v>
+      </c>
+      <c r="S103" t="n">
+        <v>3</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="s"/>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>25</v>
+      </c>
+      <c r="F104" t="s">
+        <v>807</v>
+      </c>
+      <c r="G104" t="s">
+        <v>27</v>
+      </c>
+      <c r="H104" t="s">
+        <v>28</v>
+      </c>
+      <c r="I104" t="s">
+        <v>808</v>
+      </c>
+      <c r="J104" t="s">
+        <v>809</v>
+      </c>
+      <c r="K104" t="s">
+        <v>810</v>
+      </c>
+      <c r="L104" t="s">
+        <v>811</v>
+      </c>
+      <c r="M104" t="n">
+        <v>4</v>
+      </c>
+      <c r="N104" t="s">
+        <v>812</v>
+      </c>
+      <c r="O104" t="s">
+        <v>53</v>
+      </c>
+      <c r="P104" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>5</v>
+      </c>
+      <c r="R104" t="n">
+        <v>5</v>
+      </c>
+      <c r="S104" t="n">
+        <v>5</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>2</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>25</v>
+      </c>
+      <c r="F105" t="s">
+        <v>813</v>
+      </c>
+      <c r="G105" t="s">
+        <v>27</v>
+      </c>
+      <c r="H105" t="s">
+        <v>28</v>
+      </c>
+      <c r="I105" t="s">
+        <v>814</v>
+      </c>
+      <c r="J105" t="s">
+        <v>815</v>
+      </c>
+      <c r="K105" t="s">
+        <v>816</v>
+      </c>
+      <c r="L105" t="s">
+        <v>817</v>
+      </c>
+      <c r="M105" t="n">
+        <v>2</v>
+      </c>
+      <c r="N105" t="s">
+        <v>818</v>
+      </c>
+      <c r="O105" t="s">
+        <v>43</v>
+      </c>
+      <c r="P105" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>2</v>
+      </c>
+      <c r="R105" t="n">
+        <v>3</v>
+      </c>
+      <c r="S105" t="n">
+        <v>1</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>5</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>25</v>
+      </c>
+      <c r="F106" t="s">
+        <v>819</v>
+      </c>
+      <c r="G106" t="s">
+        <v>27</v>
+      </c>
+      <c r="H106" t="s">
+        <v>28</v>
+      </c>
+      <c r="I106" t="s">
+        <v>820</v>
+      </c>
+      <c r="J106" t="s">
+        <v>821</v>
+      </c>
+      <c r="K106" t="s">
+        <v>822</v>
+      </c>
+      <c r="L106" t="s">
+        <v>823</v>
+      </c>
+      <c r="M106" t="n">
+        <v>3</v>
+      </c>
+      <c r="N106" t="s"/>
+      <c r="O106" t="s"/>
+      <c r="P106" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>3</v>
+      </c>
+      <c r="R106" t="s"/>
+      <c r="S106" t="n">
+        <v>2</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>4</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>39774</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>25</v>
+      </c>
+      <c r="F107" t="s">
+        <v>824</v>
+      </c>
+      <c r="G107" t="s">
+        <v>27</v>
+      </c>
+      <c r="H107" t="s">
+        <v>28</v>
+      </c>
+      <c r="I107" t="s">
+        <v>825</v>
+      </c>
+      <c r="J107" t="s">
+        <v>826</v>
+      </c>
+      <c r="K107" t="s">
+        <v>827</v>
+      </c>
+      <c r="L107" t="s">
+        <v>828</v>
+      </c>
+      <c r="M107" t="n">
+        <v>4</v>
+      </c>
+      <c r="N107" t="s"/>
+      <c r="O107" t="s"/>
+      <c r="P107" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>5</v>
+      </c>
+      <c r="R107" t="s"/>
+      <c r="S107" t="n">
+        <v>5</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>5</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s">
+        <v>829</v>
+      </c>
+      <c r="X107" t="s">
+        <v>830</v>
+      </c>
+      <c r="Y107" t="s">
+        <v>831</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
@@ -583,31 +9866,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>832</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>833</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>834</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>835</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>836</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>837</v>
       </c>
       <c r="H1" t="s">
-        <v>31</v>
+        <v>838</v>
       </c>
       <c r="I1" t="s">
-        <v>32</v>
+        <v>839</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>840</v>
       </c>
     </row>
     <row r="2">
@@ -615,31 +9898,31 @@
         <v>39774</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>841</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>842</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>843</v>
       </c>
       <c r="E2" t="n">
         <v>70458</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>844</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>845</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>846</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>847</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>848</v>
       </c>
     </row>
   </sheetData>
